--- a/doc/成績アプリ.xlsx
+++ b/doc/成績アプリ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\ドキュメント\開発\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\django_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,45 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>メニューボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RANKING</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAILY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ETC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PAST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INPUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※権限 高</t>
+    <rPh sb="1" eb="3">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42,15 +81,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -58,14 +103,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -74,6 +229,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FF66FFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -83,6 +244,226 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>14780</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>166524</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="グループ化 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="350956" y="452158"/>
+          <a:ext cx="487921" cy="288552"/>
+          <a:chOff x="4146659" y="958741"/>
+          <a:chExt cx="493330" cy="293961"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="角丸四角形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4146659" y="958741"/>
+            <a:ext cx="493330" cy="293961"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="直線コネクタ 4"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1031328"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1103586"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="直線コネクタ 6"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1175845"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1098177" y="459441"/>
+          <a:ext cx="2935941" cy="11207"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,13 +729,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:AE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:31" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B4" s="6"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B5" s="8"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="9"/>
+      <c r="Z5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="7"/>
+      <c r="AA6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="7"/>
+      <c r="AA7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="7"/>
+      <c r="AA8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="7"/>
+      <c r="AA9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="7"/>
+      <c r="AA10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B11" s="6"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="B12" s="6"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="15" spans="2:31" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/成績アプリ.xlsx
+++ b/doc/成績アプリ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\django_app\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\django_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="要求" sheetId="1" r:id="rId1"/>
+    <sheet name="テーブル" sheetId="3" r:id="rId2"/>
+    <sheet name="参考URL" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>メニューボタン</t>
     <phoneticPr fontId="1"/>
@@ -56,6 +58,138 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pytest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.magata.net/memo/index.php?pytest%C6%FE%CC%E7#y2046859</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力済みのデータは「仮登録」状態にする(RANKテーブル等には反映されない)</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カリトウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録」ボタンを押下することにより他のテーブルに反映される</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REGIST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※権限 高　且つ　「仮登録」データ在り</t>
+    <rPh sb="1" eb="3">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カリトウロク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUTPUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→CSVファイルを吐き出す</t>
+    <rPh sb="9" eb="10">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→選択後、削除の選択肢も作る</t>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤字は優先度高</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア入力時</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -64,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +211,40 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -184,47 +352,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -268,8 +455,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="350956" y="452158"/>
-          <a:ext cx="487921" cy="288552"/>
+          <a:off x="357680" y="457201"/>
+          <a:ext cx="494644" cy="295275"/>
           <a:chOff x="4146659" y="958741"/>
           <a:chExt cx="493330" cy="293961"/>
         </a:xfrm>
@@ -729,16 +916,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AE15"/>
+  <dimension ref="A2:AG20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF27" sqref="AF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="2.25" style="2"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:31" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -759,221 +949,314 @@
       <c r="S3" s="4"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B4" s="6"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="7"/>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B5" s="8"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="9"/>
-      <c r="Z5" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="11"/>
+      <c r="Z5" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="AG5" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B6" s="6"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="7"/>
-      <c r="AA6" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="8"/>
+      <c r="AA6" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B7" s="6"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="7"/>
-      <c r="AA7" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="8"/>
+      <c r="AA7" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B8" s="6"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="7"/>
-      <c r="AA8" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="8"/>
+      <c r="AA8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B9" s="6"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="7"/>
-      <c r="AA9" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="8"/>
+      <c r="AA9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B10" s="6"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="7"/>
-      <c r="AA10" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="8"/>
+      <c r="AA10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AE10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B11" s="6"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="8"/>
+      <c r="AA11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B12" s="6"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="15" spans="2:31" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="8"/>
+      <c r="AA12" s="15"/>
+      <c r="AE12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AA13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
+      <c r="AE14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:B5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="67.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" location="y2046859" display="https://www.magata.net/memo/index.php?pytest%C6%FE%CC%E7 - y2046859"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/成績アプリ.xlsx
+++ b/doc/成績アプリ.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>メニューボタン</t>
     <phoneticPr fontId="1"/>
@@ -190,6 +190,44 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID:</t>
+  </si>
+  <si>
+    <t>letsInSuma</t>
+  </si>
+  <si>
+    <t>EMail:</t>
+  </si>
+  <si>
+    <t>lets_in_suma@</t>
+  </si>
+  <si>
+    <t>PW:</t>
+  </si>
+  <si>
+    <t>lets2016</t>
+  </si>
+  <si>
+    <t>API token:</t>
+  </si>
+  <si>
+    <t>f06afdb854585c2066dcc9ea5e091e9bddfd199c</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この時にRANKテーブルを再作成する。</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>サイサクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -249,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +297,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -407,6 +451,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -418,8 +465,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FF99FF99"/>
       <color rgb="FFCCFFCC"/>
-      <color rgb="FF66FFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -916,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AG20"/>
+  <dimension ref="A2:AG21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF27" sqref="AF27"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1206,6 +1255,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1231,31 +1288,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:B5"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" location="y2046859" display="https://www.magata.net/memo/index.php?pytest%C6%FE%CC%E7 - y2046859"/>
+    <hyperlink ref="B8" r:id="rId1" location="y2046859" display="https://www.magata.net/memo/index.php?pytest%C6%FE%CC%E7 - y2046859"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/成績アプリ.xlsx
+++ b/doc/成績アプリ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\django_app\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\django_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="10185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="10185" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="要求" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
   <si>
     <t>メニューボタン</t>
     <phoneticPr fontId="1"/>
@@ -228,6 +228,363 @@
     </rPh>
     <rPh sb="13" eb="16">
       <t>サイサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class TblScore(models.Model):</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>gameNo</t>
+  </si>
+  <si>
+    <t>gamePt</t>
+  </si>
+  <si>
+    <t>playerID</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>serve1st</t>
+  </si>
+  <si>
+    <t>serve2nd</t>
+  </si>
+  <si>
+    <t>serveTurn</t>
+  </si>
+  <si>
+    <t>updateDate</t>
+  </si>
+  <si>
+    <t>所属テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>models.DateField(null=True)</t>
+  </si>
+  <si>
+    <t>models.PositiveIntegerField(null=True)</t>
+  </si>
+  <si>
+    <t>models.PositiveIntegerField(default=0, null=True, blank=True)</t>
+  </si>
+  <si>
+    <t>models.PositiveIntegerField(default=0, null=True)</t>
+  </si>
+  <si>
+    <t>models.BooleanField(default=False, null=True)</t>
+  </si>
+  <si>
+    <t>models.DateTimeField( default='2019-05-01 20:29:39', null=True)</t>
+  </si>
+  <si>
+    <t>主キー</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部キー</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class TblMember(models.Model):</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>dispName</t>
+  </si>
+  <si>
+    <t>inputName1</t>
+  </si>
+  <si>
+    <t>inputName2</t>
+  </si>
+  <si>
+    <t>models.PositiveIntegerField()</t>
+  </si>
+  <si>
+    <t>models.CharField(default="", blank=True, max_length=20)</t>
+  </si>
+  <si>
+    <t>class TblRank(models.Model):</t>
+  </si>
+  <si>
+    <t>gameNum</t>
+  </si>
+  <si>
+    <t>gross</t>
+  </si>
+  <si>
+    <t>HDCP</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>winNum</t>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dayNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席日数</t>
+    <rPh sb="0" eb="2">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>models.FloatField()</t>
+  </si>
+  <si>
+    <t>models.CharField(default="", max_length=20)</t>
+  </si>
+  <si>
+    <t>class TblManage(models.Model):</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thresholdPtn</t>
+  </si>
+  <si>
+    <t>dispTblName</t>
+  </si>
+  <si>
+    <t>startPeriod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>endPeriod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hideLastMonth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rvNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属テーブル（登録前はTEMP(=0)→登録時は一番大きいtblId）</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1から（0はTEMP）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>models.PositiveIntegerField()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event1name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event2name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event3name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event4name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event5name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event6name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event7name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event8name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class TblPeriodData(models.Model):</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>playerID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pairID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tblID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tblID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/masaru/items/5ebf2e96d6524830511b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス　スタティックメソッド等</t>
+    <rPh sb="14" eb="15">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HDCP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>event3</t>
+  </si>
+  <si>
+    <t>event4</t>
+  </si>
+  <si>
+    <t>event5</t>
+  </si>
+  <si>
+    <t>event6</t>
+  </si>
+  <si>
+    <t>event7</t>
+  </si>
+  <si>
+    <t>event8</t>
+  </si>
+  <si>
+    <t>models.IntegerField()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adjustDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績有効閾値
+THR_GAME_AVE_50（ゲーム数５０％以上）
+THR_DATE_HIGHER_20（出席日数上位２０名）</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シキイチ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席日数調整</t>
+    <rPh sb="0" eb="2">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -236,7 +593,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,8 +643,30 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,8 +685,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -395,6 +786,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -404,7 +815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,6 +866,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -465,8 +915,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFFF"/>
       <color rgb="FF66FFFF"/>
-      <color rgb="FFCCFFFF"/>
       <color rgb="FF99FF99"/>
       <color rgb="FFCCFFCC"/>
     </mruColors>
@@ -967,7 +1417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AG21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
@@ -1273,25 +1723,536 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.25" style="18"/>
+    <col min="2" max="2" width="14.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="58.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2.25" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="54.75" x14ac:dyDescent="0.15">
+      <c r="D1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B36" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B37" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B40" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B41" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B42" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B44" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B46" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B47" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B48" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B50" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="24"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B53" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B54" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B55" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B56" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B57" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B58" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B59" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B60" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B61" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B62" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B63" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B64" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="23"/>
+      <c r="E66" s="24"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1343,10 +2304,21 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" location="y2046859" display="https://www.magata.net/memo/index.php?pytest%C6%FE%CC%E7 - y2046859"/>
+    <hyperlink ref="B10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/成績アプリ.xlsx
+++ b/doc/成績アプリ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\django_app\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\django_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="要求" sheetId="1" r:id="rId1"/>
     <sheet name="テーブル" sheetId="3" r:id="rId2"/>
-    <sheet name="参考URL" sheetId="2" r:id="rId3"/>
+    <sheet name="設計" sheetId="4" r:id="rId3"/>
+    <sheet name="参考URL" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="114">
   <si>
     <t>メニューボタン</t>
     <phoneticPr fontId="1"/>
@@ -402,31 +403,6 @@
   </si>
   <si>
     <t>chNum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所属テーブル（登録前はTEMP(=0)→登録時は一番大きいtblId）</t>
-    <rPh sb="0" eb="2">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オオ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -586,6 +562,30 @@
     <rPh sb="4" eb="6">
       <t>チョウセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class TblDaily(models.Model):</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>totalGame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>temp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trueならば</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1104,16 +1104,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>89648</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>165848</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:rowOff>159684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123266</xdr:rowOff>
+      <xdr:rowOff>170891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1122,8 +1122,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1098177" y="459441"/>
-          <a:ext cx="2935941" cy="11207"/>
+          <a:off x="1023098" y="683559"/>
+          <a:ext cx="2996452" cy="11207"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1417,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AG21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1723,24 +1723,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.25" style="18"/>
     <col min="2" max="2" width="14.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="58.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.375" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.5" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="2.25" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="54.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="51.75" x14ac:dyDescent="0.15">
       <c r="D1" s="19" t="s">
         <v>47</v>
       </c>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>44</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>44</v>
@@ -1855,10 +1855,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="28" t="s">
-        <v>91</v>
+        <v>112</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.15">
@@ -1985,7 +1988,7 @@
         <v>63</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -1998,7 +2001,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>50</v>
@@ -2016,16 +2019,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B35" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>50</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
@@ -2033,7 +2036,7 @@
         <v>70</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -2068,177 +2071,215 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B43" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B44" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B45" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B46" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B47" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B48" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B49" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C49" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B50" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B51" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="24"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B54" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B55" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B56" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B57" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B58" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B59" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B60" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B61" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B62" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B63" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B64" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B65" s="17" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="24"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B53" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B55" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B56" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B57" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B58" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B59" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B60" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B61" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B62" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B63" s="17" t="s">
+      <c r="C65" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B64" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F64" s="17" t="s">
+      <c r="F65" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="21" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="24"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="24"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B68" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B69" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B70" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2248,6 +2289,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B10"/>
   <sheetViews>
@@ -2306,12 +2360,12 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/doc/成績アプリ.xlsx
+++ b/doc/成績アプリ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\django_app\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\django_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="10185" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="要求" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="210">
   <si>
     <t>メニューボタン</t>
     <phoneticPr fontId="1"/>
@@ -588,12 +588,606 @@
     <t>Trueならば</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>問題点</t>
+    <rPh sb="0" eb="3">
+      <t>モンダイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pythonanywhereでcssが有効にならない</t>
+    <rPh sb="19" eb="21">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体試験がうまくいかない</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示系app</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class Disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力系app</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class Input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力系app</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class Output</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MENU画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デイリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デイリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◀</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▶</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019年前期</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019/01/05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合数：20</t>
+    <rPh sb="0" eb="2">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加人数：20</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンズウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019/01/06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮田、住野</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スミノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野上、高橋</t>
+    <rPh sb="0" eb="2">
+      <t>ノガミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>志水</t>
+    <rPh sb="0" eb="2">
+      <t>シミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前田</t>
+    <rPh sb="0" eb="2">
+      <t>マエダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>榊</t>
+    <rPh sb="0" eb="1">
+      <t>サカキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和田</t>
+    <rPh sb="0" eb="2">
+      <t>ワダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>playerNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※権限　高</t>
+    <rPh sb="1" eb="3">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績入力</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績入力</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エトセトラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮登録：3</t>
+    <rPh sb="0" eb="3">
+      <t>カリトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gameNo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイブレーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮登録</t>
+    <rPh sb="0" eb="3">
+      <t>カリトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他：</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消去</t>
+    <rPh sb="0" eb="2">
+      <t>ショウキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他コマンド</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバ登録</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加人数</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンズウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績登録</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績出力</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理データ</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青地は優先度低</t>
+    <rPh sb="0" eb="2">
+      <t>アオジ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/10の成績は入力途中です。</t>
+    <rPh sb="5" eb="7">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合数</t>
+    <rPh sb="0" eb="2">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gross</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Net</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日数</t>
+    <rPh sb="0" eb="2">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日高</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>澤田</t>
+    <rPh sb="0" eb="2">
+      <t>サワダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.544</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.395</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.518</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.361</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規定日数</t>
+    <rPh sb="0" eb="2">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日数 xx以上</t>
+    <rPh sb="0" eb="2">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規定試合数</t>
+    <rPh sb="0" eb="2">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xx以上</t>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,36 +1204,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -661,6 +1230,58 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -698,7 +1319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -806,105 +1427,1181 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -936,16 +2633,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>14780</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100505</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>166524</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -954,8 +2651,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="357680" y="457201"/>
-          <a:ext cx="494644" cy="295275"/>
+          <a:off x="252905" y="514350"/>
+          <a:ext cx="499570" cy="180976"/>
           <a:chOff x="4146659" y="958741"/>
           <a:chExt cx="493330" cy="293961"/>
         </a:xfrm>
@@ -1105,15 +2802,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>165848</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>159684</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>170891</xdr:rowOff>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1121,9 +2818,762 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="838200" y="857250"/>
+          <a:ext cx="2714626" cy="121584"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100505</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="252905" y="5534025"/>
+          <a:ext cx="499570" cy="180976"/>
+          <a:chOff x="4146659" y="958741"/>
+          <a:chExt cx="493330" cy="293961"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="角丸四角形 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4146659" y="958741"/>
+            <a:ext cx="493330" cy="293961"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="直線コネクタ 11"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1031328"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="直線コネクタ 12"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1103586"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1175845"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1023098" y="683559"/>
-          <a:ext cx="2996452" cy="11207"/>
+          <a:off x="2952750" y="4133850"/>
+          <a:ext cx="733425" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100505</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="グループ化 15"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="252905" y="8477250"/>
+          <a:ext cx="499570" cy="180976"/>
+          <a:chOff x="4146659" y="958741"/>
+          <a:chExt cx="493330" cy="293961"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="角丸四角形 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4146659" y="958741"/>
+            <a:ext cx="493330" cy="293961"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="18" name="直線コネクタ 17"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1031328"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="19" name="直線コネクタ 18"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1103586"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="20" name="直線コネクタ 19"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1175845"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="847726" y="3390900"/>
+          <a:ext cx="2857499" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="下カーブ矢印 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="4229100"/>
+          <a:ext cx="1209675" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1419225" y="9324975"/>
+          <a:ext cx="2524125" cy="1057276"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100505</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="グループ化 28"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="252905" y="2667000"/>
+          <a:ext cx="499570" cy="180976"/>
+          <a:chOff x="4146659" y="958741"/>
+          <a:chExt cx="493330" cy="293961"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="角丸四角形 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4146659" y="958741"/>
+            <a:ext cx="493330" cy="293961"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="31" name="直線コネクタ 30"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1031328"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="32" name="直線コネクタ 31"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1103586"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="33" name="直線コネクタ 32"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1175845"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1819275" y="3543300"/>
+          <a:ext cx="1971675" cy="533401"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1415,870 +3865,2302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AG21"/>
+  <dimension ref="A1:AY90"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY25" sqref="AY25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.25" style="2"/>
+    <col min="1" max="16384" width="2.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="5"/>
-    </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="11"/>
-      <c r="Z5" s="2" t="s">
+    <row r="1" spans="1:51" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="B3" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="25"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="30"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="34"/>
+      <c r="Z5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AG5" s="14" t="s">
+      <c r="AG5" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="8"/>
-      <c r="AA6" s="14" t="s">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="30"/>
+      <c r="AA6" s="35" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="8"/>
-      <c r="AA7" s="15" t="s">
+      <c r="AS6" s="36"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="30"/>
+      <c r="AA7" s="35" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="8"/>
-      <c r="AA8" s="2" t="s">
+      <c r="AS7" s="37"/>
+      <c r="AT7" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="30"/>
+      <c r="AA8" s="19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="8"/>
-      <c r="AA9" s="2" t="s">
+      <c r="AS8" s="37"/>
+      <c r="AU8" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="30"/>
+      <c r="AA9" s="19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="8"/>
-      <c r="AA10" s="14" t="s">
+      <c r="AS9" s="38"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="30"/>
+      <c r="AA10" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AE10" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="8"/>
-      <c r="AA11" s="15" t="s">
+      <c r="AS10" s="36"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="30"/>
+      <c r="AA11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="8"/>
-      <c r="AA12" s="15"/>
-      <c r="AE12" s="2" t="s">
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="40"/>
+      <c r="AK11" s="40"/>
+      <c r="AL11" s="40"/>
+      <c r="AM11" s="40"/>
+      <c r="AN11" s="40"/>
+      <c r="AO11" s="40"/>
+      <c r="AP11" s="40"/>
+      <c r="AQ11" s="40"/>
+      <c r="AR11" s="40"/>
+      <c r="AS11" s="37"/>
+      <c r="AT11" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="30"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="AA13" s="15" t="s">
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="38"/>
+      <c r="AU12" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AA13" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="AE13" s="2" t="s">
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="AE14" s="2" t="s">
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="40"/>
+      <c r="AN13" s="40"/>
+      <c r="AO13" s="40"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="40"/>
+      <c r="AS13" s="41"/>
+      <c r="AT13" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU13" s="40"/>
+      <c r="AV13" s="40"/>
+      <c r="AW13" s="40"/>
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="40"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="40"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="42"/>
+      <c r="AU14" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV14" s="40"/>
+      <c r="AW14" s="40"/>
+      <c r="AX14" s="40"/>
+      <c r="AY14" s="40"/>
+    </row>
+    <row r="16" spans="1:51" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B18" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="25"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="30"/>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="34"/>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="30"/>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B22" s="26"/>
+      <c r="C22" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="T22" s="30"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B23" s="26"/>
+      <c r="T23" s="30"/>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B24" s="26"/>
+      <c r="C24" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" s="41"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="P24" s="36"/>
+      <c r="T24" s="30"/>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B25" s="26"/>
+      <c r="C25" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="H25" s="41"/>
+      <c r="I25" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" s="41"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="P25" s="36"/>
+      <c r="T25" s="30"/>
+      <c r="Z25" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE25" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH25" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B26" s="26"/>
+      <c r="C26" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" s="27"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="P26" s="37"/>
+      <c r="T26" s="30"/>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B27" s="26"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="37"/>
+      <c r="T27" s="30"/>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B28" s="26"/>
+      <c r="T28" s="30"/>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B29" s="26"/>
+      <c r="D29" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="T29" s="30"/>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B30" s="26"/>
+      <c r="T30" s="30"/>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B31" s="26"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="H31" s="27"/>
+      <c r="I31" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="J31" s="27"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="P31" s="37"/>
+      <c r="T31" s="30"/>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B32" s="26"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" s="27"/>
+      <c r="I32" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="J32" s="27"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="P32" s="37"/>
+      <c r="T32" s="30"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B33" s="26"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="J33" s="27"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="P33" s="37"/>
+      <c r="T33" s="30"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="30"/>
+    </row>
+    <row r="36" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B38" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="M38" s="23"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="25"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B39" s="26"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="30"/>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="34"/>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="30"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B42" s="26"/>
+      <c r="C42" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="30"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B43" s="26"/>
+      <c r="C43" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="30"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B44" s="26"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="30"/>
+      <c r="Z44" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B45" s="26"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="S45" s="47"/>
+      <c r="T45" s="30"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B46" s="26"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="30"/>
+    </row>
+    <row r="47" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="26"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="S47" s="47"/>
+      <c r="T47" s="30"/>
+      <c r="AA47" s="48"/>
+      <c r="AB47" s="41"/>
+      <c r="AC47" s="41"/>
+      <c r="AD47" s="41"/>
+      <c r="AE47" s="41"/>
+      <c r="AF47" s="41"/>
+      <c r="AG47" s="41"/>
+      <c r="AH47" s="41"/>
+      <c r="AI47" s="41"/>
+      <c r="AJ47" s="36"/>
+    </row>
+    <row r="48" spans="1:36" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="26"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="30"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC48" s="47"/>
+      <c r="AD48" s="27"/>
+      <c r="AE48" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF48" s="47"/>
+      <c r="AG48" s="27"/>
+      <c r="AH48" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI48" s="47"/>
+      <c r="AJ48" s="37"/>
+    </row>
+    <row r="49" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="26"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="30"/>
+      <c r="AA49" s="64"/>
+      <c r="AB49" s="32"/>
+      <c r="AC49" s="32"/>
+      <c r="AD49" s="32"/>
+      <c r="AE49" s="32"/>
+      <c r="AF49" s="32"/>
+      <c r="AG49" s="32"/>
+      <c r="AH49" s="32"/>
+      <c r="AI49" s="32"/>
+      <c r="AJ49" s="38"/>
+    </row>
+    <row r="50" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="26"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="I50" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="J50" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="K50" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="70"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="30"/>
+    </row>
+    <row r="51" spans="1:36" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="26"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="76"/>
+      <c r="O51" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="30"/>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B52" s="26"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="80"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="63"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="30"/>
+    </row>
+    <row r="53" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="26"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="87"/>
+      <c r="J53" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="K53" s="87"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="87"/>
+      <c r="N53" s="88"/>
+      <c r="O53" s="89"/>
+      <c r="P53" s="90"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="30"/>
+    </row>
+    <row r="54" spans="1:36" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="26"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="30"/>
+    </row>
+    <row r="56" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="91"/>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B59" s="26"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="30"/>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="34"/>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B61" s="26"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="27"/>
+      <c r="T61" s="30"/>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B62" s="26"/>
+      <c r="D62" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="T62" s="30"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="B63" s="26"/>
+      <c r="D63" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="T63" s="30"/>
+    </row>
+    <row r="64" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="26"/>
+      <c r="T64" s="30"/>
+    </row>
+    <row r="65" spans="2:34" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="26"/>
+      <c r="D65" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="H65" s="93"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="N65" s="52"/>
+      <c r="O65" s="52"/>
+      <c r="P65" s="53"/>
+      <c r="Q65" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="R65" s="55"/>
+      <c r="T65" s="30"/>
+    </row>
+    <row r="66" spans="2:34" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="26"/>
+      <c r="D66" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="94" t="s">
+        <v>200</v>
+      </c>
+      <c r="H66" s="95"/>
+      <c r="I66" s="58"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="L66" s="60"/>
+      <c r="M66" s="60"/>
+      <c r="N66" s="60"/>
+      <c r="O66" s="60"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="62"/>
+      <c r="R66" s="63"/>
+      <c r="T66" s="30"/>
+    </row>
+    <row r="67" spans="2:34" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="26"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="97"/>
+      <c r="I67" s="98"/>
+      <c r="J67" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="K67" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="L67" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="M67" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="N67" s="68"/>
+      <c r="O67" s="68"/>
+      <c r="P67" s="69"/>
+      <c r="Q67" s="70"/>
+      <c r="R67" s="71"/>
+      <c r="T67" s="30"/>
+    </row>
+    <row r="68" spans="2:34" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="26"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="100"/>
+      <c r="I68" s="101"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="75"/>
+      <c r="L68" s="75"/>
+      <c r="M68" s="75"/>
+      <c r="N68" s="75"/>
+      <c r="O68" s="75"/>
+      <c r="P68" s="76"/>
+      <c r="Q68" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="R68" s="78"/>
+      <c r="T68" s="30"/>
+    </row>
+    <row r="69" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B69" s="26"/>
+      <c r="D69" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="H69" s="103"/>
+      <c r="I69" s="80"/>
+      <c r="J69" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="K69" s="82"/>
+      <c r="L69" s="82"/>
+      <c r="M69" s="82"/>
+      <c r="N69" s="82"/>
+      <c r="O69" s="82"/>
+      <c r="P69" s="83"/>
+      <c r="Q69" s="62"/>
+      <c r="R69" s="63"/>
+      <c r="T69" s="30"/>
+    </row>
+    <row r="70" spans="2:34" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="26"/>
+      <c r="D70" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="104" t="s">
+        <v>202</v>
+      </c>
+      <c r="H70" s="105"/>
+      <c r="I70" s="85"/>
+      <c r="J70" s="86"/>
+      <c r="K70" s="87"/>
+      <c r="L70" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="M70" s="87"/>
+      <c r="N70" s="87"/>
+      <c r="O70" s="87"/>
+      <c r="P70" s="88"/>
+      <c r="Q70" s="89"/>
+      <c r="R70" s="90"/>
+      <c r="T70" s="30"/>
+    </row>
+    <row r="71" spans="2:34" ht="12" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="26"/>
+      <c r="D71" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="T71" s="30"/>
+      <c r="AA71" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH71" s="110" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B72" s="26"/>
+      <c r="T72" s="30"/>
+      <c r="AB72" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B73" s="26"/>
+      <c r="D73" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73" s="106"/>
+      <c r="F73" s="47"/>
+      <c r="T73" s="30"/>
+      <c r="AB73" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B74" s="26"/>
+      <c r="T74" s="30"/>
+      <c r="AB74" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B75" s="26"/>
+      <c r="T75" s="30"/>
+      <c r="AB75" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B76" s="26"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="27"/>
+      <c r="T76" s="30"/>
+      <c r="AB76" s="110" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B77" s="26"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="H77" s="106"/>
+      <c r="I77" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="27"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="27"/>
+      <c r="T77" s="30"/>
+    </row>
+    <row r="78" spans="2:34" x14ac:dyDescent="0.15">
+      <c r="B78" s="26"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" s="47"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="27"/>
+      <c r="S78" s="27"/>
+      <c r="T78" s="30"/>
+    </row>
+    <row r="79" spans="2:34" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="107"/>
+      <c r="C79" s="108"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="108"/>
+      <c r="F79" s="108"/>
+      <c r="G79" s="108"/>
+      <c r="H79" s="108"/>
+      <c r="I79" s="108"/>
+      <c r="J79" s="108"/>
+      <c r="K79" s="108"/>
+      <c r="L79" s="108"/>
+      <c r="M79" s="108"/>
+      <c r="N79" s="108"/>
+      <c r="O79" s="108"/>
+      <c r="P79" s="108"/>
+      <c r="Q79" s="108"/>
+      <c r="R79" s="108"/>
+      <c r="S79" s="108"/>
+      <c r="T79" s="109"/>
+    </row>
+    <row r="82" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="2" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B83" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C83" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="2" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B84" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C84" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="2" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B85" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C85" s="19" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="87" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B88" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B89" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B90" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="O51:P53"/>
+    <mergeCell ref="Q65:R67"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="Q68:R70"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="I4:O5"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="O48:P50"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C25" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="18"/>
-    <col min="2" max="2" width="14.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="70.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.375" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="2.25" style="17"/>
+    <col min="1" max="1" width="2.28515625" style="4"/>
+    <col min="2" max="2" width="14.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="D1" s="19" t="s">
+    <row r="1" spans="1:6" ht="54.75" x14ac:dyDescent="0.15">
+      <c r="D1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="21" t="s">
+    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="15" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="21" t="s">
+    <row r="53" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="11" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="11" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F65" s="17" t="s">
+      <c r="F65" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="21" t="s">
+    <row r="67" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D67" s="23"/>
-      <c r="E67" s="24"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="D68" s="11" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="D69" s="11" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="3" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B71" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2292,9 +6174,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="2.28515625" style="16"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2309,10 +6196,10 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -2347,7 +6234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>

--- a/doc/成績アプリ.xlsx
+++ b/doc/成績アプリ.xlsx
@@ -2351,257 +2351,257 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3868,7 +3868,7 @@
   <dimension ref="A1:AY90"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY25" sqref="AY25"/>
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3917,51 +3917,51 @@
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="109" t="s">
         <v>128</v>
       </c>
       <c r="H4" s="27"/>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
       <c r="P4" s="27"/>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="111" t="s">
         <v>129</v>
       </c>
       <c r="R4" s="27"/>
       <c r="S4" s="27"/>
-      <c r="T4" s="30"/>
+      <c r="T4" s="28"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="34"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="31"/>
       <c r="Z5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AG5" s="35" t="s">
+      <c r="AG5" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3984,11 +3984,11 @@
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
       <c r="S6" s="27"/>
-      <c r="T6" s="30"/>
-      <c r="AA6" s="35" t="s">
+      <c r="T6" s="28"/>
+      <c r="AA6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="AS6" s="36"/>
+      <c r="AS6" s="33"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.15">
       <c r="B7" s="26"/>
@@ -4009,11 +4009,11 @@
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
       <c r="S7" s="27"/>
-      <c r="T7" s="30"/>
-      <c r="AA7" s="35" t="s">
+      <c r="T7" s="28"/>
+      <c r="AA7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="AS7" s="37"/>
+      <c r="AS7" s="34"/>
       <c r="AT7" s="19" t="s">
         <v>117</v>
       </c>
@@ -4037,11 +4037,11 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="27"/>
-      <c r="T8" s="30"/>
+      <c r="T8" s="28"/>
       <c r="AA8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AS8" s="37"/>
+      <c r="AS8" s="34"/>
       <c r="AU8" s="19" t="s">
         <v>118</v>
       </c>
@@ -4065,11 +4065,11 @@
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
-      <c r="T9" s="30"/>
+      <c r="T9" s="28"/>
       <c r="AA9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AS9" s="38"/>
+      <c r="AS9" s="35"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.15">
       <c r="B10" s="26"/>
@@ -4090,14 +4090,14 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
       <c r="S10" s="27"/>
-      <c r="T10" s="30"/>
-      <c r="AA10" s="35" t="s">
+      <c r="T10" s="28"/>
+      <c r="AA10" s="32" t="s">
         <v>5</v>
       </c>
       <c r="AE10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AS10" s="36"/>
+      <c r="AS10" s="33"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.15">
       <c r="B11" s="26"/>
@@ -4118,30 +4118,30 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
-      <c r="T11" s="30"/>
-      <c r="AA11" s="39" t="s">
+      <c r="T11" s="28"/>
+      <c r="AA11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40" t="s">
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="40"/>
-      <c r="AH11" s="40"/>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="40"/>
-      <c r="AK11" s="40"/>
-      <c r="AL11" s="40"/>
-      <c r="AM11" s="40"/>
-      <c r="AN11" s="40"/>
-      <c r="AO11" s="40"/>
-      <c r="AP11" s="40"/>
-      <c r="AQ11" s="40"/>
-      <c r="AR11" s="40"/>
-      <c r="AS11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="37"/>
+      <c r="AM11" s="37"/>
+      <c r="AN11" s="37"/>
+      <c r="AO11" s="37"/>
+      <c r="AP11" s="37"/>
+      <c r="AQ11" s="37"/>
+      <c r="AR11" s="37"/>
+      <c r="AS11" s="34"/>
       <c r="AT11" s="19" t="s">
         <v>119</v>
       </c>
@@ -4165,95 +4165,95 @@
       <c r="Q12" s="27"/>
       <c r="R12" s="27"/>
       <c r="S12" s="27"/>
-      <c r="T12" s="30"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40" t="s">
+      <c r="T12" s="28"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="40"/>
-      <c r="AH12" s="40"/>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="40"/>
-      <c r="AK12" s="40"/>
-      <c r="AL12" s="40"/>
-      <c r="AM12" s="40"/>
-      <c r="AN12" s="40"/>
-      <c r="AO12" s="40"/>
-      <c r="AP12" s="40"/>
-      <c r="AQ12" s="40"/>
-      <c r="AR12" s="40"/>
-      <c r="AS12" s="38"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="37"/>
+      <c r="AO12" s="37"/>
+      <c r="AP12" s="37"/>
+      <c r="AQ12" s="37"/>
+      <c r="AR12" s="37"/>
+      <c r="AS12" s="35"/>
       <c r="AU12" s="19" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="AA13" s="39" t="s">
+      <c r="AA13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="40" t="s">
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="40"/>
-      <c r="AH13" s="40"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="40"/>
-      <c r="AK13" s="40"/>
-      <c r="AL13" s="40"/>
-      <c r="AM13" s="40"/>
-      <c r="AN13" s="40"/>
-      <c r="AO13" s="40"/>
-      <c r="AP13" s="40"/>
-      <c r="AQ13" s="40"/>
-      <c r="AR13" s="40"/>
-      <c r="AS13" s="41"/>
-      <c r="AT13" s="42" t="s">
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="37"/>
+      <c r="AM13" s="37"/>
+      <c r="AN13" s="37"/>
+      <c r="AO13" s="37"/>
+      <c r="AP13" s="37"/>
+      <c r="AQ13" s="37"/>
+      <c r="AR13" s="37"/>
+      <c r="AS13" s="38"/>
+      <c r="AT13" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="AU13" s="40"/>
-      <c r="AV13" s="40"/>
-      <c r="AW13" s="40"/>
-      <c r="AX13" s="40"/>
-      <c r="AY13" s="40"/>
+      <c r="AU13" s="37"/>
+      <c r="AV13" s="37"/>
+      <c r="AW13" s="37"/>
+      <c r="AX13" s="37"/>
+      <c r="AY13" s="37"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="40" t="s">
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="40"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="40"/>
-      <c r="AO14" s="40"/>
-      <c r="AP14" s="40"/>
-      <c r="AQ14" s="40"/>
-      <c r="AR14" s="40"/>
-      <c r="AS14" s="32"/>
-      <c r="AT14" s="42"/>
-      <c r="AU14" s="40" t="s">
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="37"/>
+      <c r="AM14" s="37"/>
+      <c r="AN14" s="37"/>
+      <c r="AO14" s="37"/>
+      <c r="AP14" s="37"/>
+      <c r="AQ14" s="37"/>
+      <c r="AR14" s="37"/>
+      <c r="AS14" s="30"/>
+      <c r="AT14" s="39"/>
+      <c r="AU14" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="AV14" s="40"/>
-      <c r="AW14" s="40"/>
-      <c r="AX14" s="40"/>
-      <c r="AY14" s="40"/>
+      <c r="AV14" s="37"/>
+      <c r="AW14" s="37"/>
+      <c r="AX14" s="37"/>
+      <c r="AY14" s="37"/>
     </row>
     <row r="16" spans="1:51" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
@@ -4309,28 +4309,28 @@
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
-      <c r="T19" s="30"/>
+      <c r="T19" s="28"/>
     </row>
     <row r="20" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="34"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="31"/>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B21" s="26"/>
@@ -4351,7 +4351,7 @@
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
-      <c r="T21" s="30"/>
+      <c r="T21" s="28"/>
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B22" s="26"/>
@@ -4361,71 +4361,71 @@
       <c r="G22" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="T22" s="30"/>
+      <c r="T22" s="28"/>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B23" s="26"/>
-      <c r="T23" s="30"/>
+      <c r="T23" s="28"/>
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B24" s="26"/>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="111" t="s">
+      <c r="E24" s="33"/>
+      <c r="F24" s="94" t="s">
         <v>184</v>
       </c>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="48" t="s">
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="41" t="s">
+      <c r="J24" s="38"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="48" t="s">
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="P24" s="36"/>
-      <c r="T24" s="30"/>
+      <c r="P24" s="33"/>
+      <c r="T24" s="28"/>
     </row>
     <row r="25" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B25" s="26"/>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41" t="s">
+      <c r="E25" s="33"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="48" t="s">
+      <c r="H25" s="38"/>
+      <c r="I25" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="41" t="s">
+      <c r="J25" s="38"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="48" t="s">
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="P25" s="36"/>
-      <c r="T25" s="30"/>
+      <c r="P25" s="33"/>
+      <c r="T25" s="28"/>
       <c r="Z25" s="19" t="s">
         <v>205</v>
       </c>
@@ -4438,55 +4438,55 @@
     </row>
     <row r="26" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B26" s="26"/>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27" t="s">
         <v>192</v>
       </c>
       <c r="H26" s="27"/>
-      <c r="I26" s="56" t="s">
+      <c r="I26" s="51" t="s">
         <v>194</v>
       </c>
       <c r="J26" s="27"/>
-      <c r="K26" s="37"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="27" t="s">
         <v>196</v>
       </c>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
-      <c r="O26" s="56" t="s">
+      <c r="O26" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="P26" s="37"/>
-      <c r="T26" s="30"/>
+      <c r="P26" s="34"/>
+      <c r="T26" s="28"/>
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B27" s="26"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="37"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
-      <c r="I27" s="56"/>
+      <c r="I27" s="51"/>
       <c r="J27" s="27"/>
-      <c r="K27" s="37"/>
+      <c r="K27" s="34"/>
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="37"/>
-      <c r="T27" s="30"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="34"/>
+      <c r="T27" s="28"/>
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B28" s="26"/>
-      <c r="T28" s="30"/>
+      <c r="T28" s="28"/>
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B29" s="26"/>
@@ -4496,95 +4496,95 @@
       <c r="H29" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="T29" s="30"/>
+      <c r="T29" s="28"/>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B30" s="26"/>
-      <c r="T30" s="30"/>
+      <c r="T30" s="28"/>
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B31" s="26"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56" t="s">
+      <c r="C31" s="51"/>
+      <c r="D31" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="E31" s="37"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27" t="s">
         <v>207</v>
       </c>
       <c r="H31" s="27"/>
-      <c r="I31" s="56" t="s">
+      <c r="I31" s="51" t="s">
         <v>209</v>
       </c>
       <c r="J31" s="27"/>
-      <c r="K31" s="37"/>
+      <c r="K31" s="34"/>
       <c r="L31" s="27" t="s">
         <v>209</v>
       </c>
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
-      <c r="O31" s="56" t="s">
+      <c r="O31" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="P31" s="37"/>
-      <c r="T31" s="30"/>
+      <c r="P31" s="34"/>
+      <c r="T31" s="28"/>
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B32" s="26"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56" t="s">
+      <c r="C32" s="51"/>
+      <c r="D32" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="E32" s="37"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27" t="s">
         <v>207</v>
       </c>
       <c r="H32" s="27"/>
-      <c r="I32" s="56" t="s">
+      <c r="I32" s="51" t="s">
         <v>209</v>
       </c>
       <c r="J32" s="27"/>
-      <c r="K32" s="37"/>
+      <c r="K32" s="34"/>
       <c r="L32" s="27" t="s">
         <v>209</v>
       </c>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
-      <c r="O32" s="56" t="s">
+      <c r="O32" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="P32" s="37"/>
-      <c r="T32" s="30"/>
+      <c r="P32" s="34"/>
+      <c r="T32" s="28"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B33" s="26"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56" t="s">
+      <c r="C33" s="51"/>
+      <c r="D33" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="E33" s="37"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27" t="s">
         <v>207</v>
       </c>
       <c r="H33" s="27"/>
-      <c r="I33" s="56" t="s">
+      <c r="I33" s="51" t="s">
         <v>209</v>
       </c>
       <c r="J33" s="27"/>
-      <c r="K33" s="37"/>
+      <c r="K33" s="34"/>
       <c r="L33" s="27" t="s">
         <v>209</v>
       </c>
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
-      <c r="O33" s="56" t="s">
+      <c r="O33" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="P33" s="37"/>
-      <c r="T33" s="30"/>
+      <c r="P33" s="34"/>
+      <c r="T33" s="28"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B34" s="26"/>
@@ -4605,7 +4605,7 @@
       <c r="Q34" s="27"/>
       <c r="R34" s="27"/>
       <c r="S34" s="27"/>
-      <c r="T34" s="30"/>
+      <c r="T34" s="28"/>
     </row>
     <row r="36" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
@@ -4614,13 +4614,13 @@
     </row>
     <row r="37" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="40" t="s">
         <v>124</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
       <c r="E38" s="24"/>
-      <c r="F38" s="44"/>
+      <c r="F38" s="41"/>
       <c r="G38" s="21" t="s">
         <v>125</v>
       </c>
@@ -4661,28 +4661,28 @@
       <c r="Q39" s="27"/>
       <c r="R39" s="27"/>
       <c r="S39" s="27"/>
-      <c r="T39" s="30"/>
+      <c r="T39" s="28"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="34"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="31"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B41" s="26"/>
@@ -4703,11 +4703,11 @@
       <c r="Q41" s="27"/>
       <c r="R41" s="27"/>
       <c r="S41" s="27"/>
-      <c r="T41" s="30"/>
+      <c r="T41" s="28"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B42" s="26"/>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="42" t="s">
         <v>131</v>
       </c>
       <c r="D42" s="27" t="s">
@@ -4732,11 +4732,11 @@
       <c r="Q42" s="27"/>
       <c r="R42" s="27"/>
       <c r="S42" s="27"/>
-      <c r="T42" s="30"/>
+      <c r="T42" s="28"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B43" s="26"/>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="42" t="s">
         <v>132</v>
       </c>
       <c r="D43" s="27" t="s">
@@ -4761,12 +4761,12 @@
       <c r="Q43" s="27"/>
       <c r="R43" s="27"/>
       <c r="S43" s="27"/>
-      <c r="T43" s="30"/>
+      <c r="T43" s="28"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B44" s="26"/>
       <c r="C44" s="27"/>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="42" t="s">
         <v>131</v>
       </c>
       <c r="E44" s="27"/>
@@ -4784,7 +4784,7 @@
       <c r="Q44" s="27"/>
       <c r="R44" s="27"/>
       <c r="S44" s="27"/>
-      <c r="T44" s="30"/>
+      <c r="T44" s="28"/>
       <c r="Z44" s="19" t="s">
         <v>155</v>
       </c>
@@ -4792,7 +4792,7 @@
     <row r="45" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B45" s="26"/>
       <c r="C45" s="27"/>
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="42" t="s">
         <v>131</v>
       </c>
       <c r="E45" s="27" t="s">
@@ -4814,11 +4814,11 @@
       <c r="O45" s="27"/>
       <c r="P45" s="27"/>
       <c r="Q45" s="27"/>
-      <c r="R45" s="46" t="s">
+      <c r="R45" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="S45" s="47"/>
-      <c r="T45" s="30"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="28"/>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B46" s="26"/>
@@ -4845,12 +4845,12 @@
       <c r="Q46" s="27"/>
       <c r="R46" s="27"/>
       <c r="S46" s="27"/>
-      <c r="T46" s="30"/>
+      <c r="T46" s="28"/>
     </row>
     <row r="47" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B47" s="26"/>
       <c r="C47" s="27"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="42" t="s">
         <v>141</v>
       </c>
       <c r="E47" s="27" t="s">
@@ -4868,201 +4868,201 @@
       <c r="O47" s="27"/>
       <c r="P47" s="27"/>
       <c r="Q47" s="27"/>
-      <c r="R47" s="46" t="s">
+      <c r="R47" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="S47" s="47"/>
-      <c r="T47" s="30"/>
-      <c r="AA47" s="48"/>
-      <c r="AB47" s="41"/>
-      <c r="AC47" s="41"/>
-      <c r="AD47" s="41"/>
-      <c r="AE47" s="41"/>
-      <c r="AF47" s="41"/>
-      <c r="AG47" s="41"/>
-      <c r="AH47" s="41"/>
-      <c r="AI47" s="41"/>
-      <c r="AJ47" s="36"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="28"/>
+      <c r="AA47" s="45"/>
+      <c r="AB47" s="38"/>
+      <c r="AC47" s="38"/>
+      <c r="AD47" s="38"/>
+      <c r="AE47" s="38"/>
+      <c r="AF47" s="38"/>
+      <c r="AG47" s="38"/>
+      <c r="AH47" s="38"/>
+      <c r="AI47" s="38"/>
+      <c r="AJ47" s="33"/>
     </row>
     <row r="48" spans="1:36" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B48" s="26"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
-      <c r="E48" s="49" t="s">
+      <c r="E48" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52" t="s">
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="54" t="s">
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="P48" s="55"/>
+      <c r="P48" s="102"/>
       <c r="Q48" s="27"/>
       <c r="R48" s="27"/>
       <c r="S48" s="27"/>
-      <c r="T48" s="30"/>
-      <c r="AA48" s="56"/>
-      <c r="AB48" s="46" t="s">
+      <c r="T48" s="28"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="AC48" s="47"/>
+      <c r="AC48" s="44"/>
       <c r="AD48" s="27"/>
-      <c r="AE48" s="46" t="s">
+      <c r="AE48" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="AF48" s="47"/>
+      <c r="AF48" s="44"/>
       <c r="AG48" s="27"/>
-      <c r="AH48" s="46" t="s">
+      <c r="AH48" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="AI48" s="47"/>
-      <c r="AJ48" s="37"/>
+      <c r="AI48" s="44"/>
+      <c r="AJ48" s="34"/>
     </row>
     <row r="49" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B49" s="26"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
-      <c r="E49" s="57" t="s">
+      <c r="E49" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="60" t="s">
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="60"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="63"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="97"/>
+      <c r="P49" s="98"/>
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
       <c r="S49" s="27"/>
-      <c r="T49" s="30"/>
-      <c r="AA49" s="64"/>
-      <c r="AB49" s="32"/>
-      <c r="AC49" s="32"/>
-      <c r="AD49" s="32"/>
-      <c r="AE49" s="32"/>
-      <c r="AF49" s="32"/>
-      <c r="AG49" s="32"/>
-      <c r="AH49" s="32"/>
-      <c r="AI49" s="32"/>
-      <c r="AJ49" s="38"/>
+      <c r="T49" s="28"/>
+      <c r="AA49" s="57"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="30"/>
+      <c r="AE49" s="30"/>
+      <c r="AF49" s="30"/>
+      <c r="AG49" s="30"/>
+      <c r="AH49" s="30"/>
+      <c r="AI49" s="30"/>
+      <c r="AJ49" s="35"/>
     </row>
     <row r="50" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B50" s="26"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="67" t="s">
+      <c r="E50" s="105"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="I50" s="68" t="s">
+      <c r="I50" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="J50" s="68" t="s">
+      <c r="J50" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="K50" s="68" t="s">
+      <c r="K50" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="69"/>
-      <c r="O50" s="70"/>
-      <c r="P50" s="71"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="103"/>
+      <c r="P50" s="104"/>
       <c r="Q50" s="27"/>
       <c r="R50" s="27"/>
       <c r="S50" s="27"/>
-      <c r="T50" s="30"/>
+      <c r="T50" s="28"/>
     </row>
     <row r="51" spans="1:36" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B51" s="26"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="76"/>
-      <c r="O51" s="77" t="s">
+      <c r="E51" s="107"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="P51" s="78"/>
+      <c r="P51" s="96"/>
       <c r="Q51" s="27"/>
       <c r="R51" s="27"/>
       <c r="S51" s="27"/>
-      <c r="T51" s="30"/>
+      <c r="T51" s="28"/>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B52" s="26"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
-      <c r="E52" s="79" t="s">
+      <c r="E52" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="81" t="s">
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="83"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="63"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="68"/>
+      <c r="O52" s="97"/>
+      <c r="P52" s="98"/>
       <c r="Q52" s="27"/>
       <c r="R52" s="27"/>
       <c r="S52" s="27"/>
-      <c r="T52" s="30"/>
+      <c r="T52" s="28"/>
     </row>
     <row r="53" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B53" s="26"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
-      <c r="E53" s="84" t="s">
+      <c r="E53" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87" t="s">
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="K53" s="87"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="89"/>
-      <c r="P53" s="90"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="99"/>
+      <c r="P53" s="100"/>
       <c r="Q53" s="27"/>
       <c r="R53" s="27"/>
       <c r="S53" s="27"/>
-      <c r="T53" s="30"/>
+      <c r="T53" s="28"/>
     </row>
     <row r="54" spans="1:36" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B54" s="26"/>
@@ -5083,7 +5083,7 @@
       <c r="Q54" s="27"/>
       <c r="R54" s="27"/>
       <c r="S54" s="27"/>
-      <c r="T54" s="30"/>
+      <c r="T54" s="28"/>
     </row>
     <row r="56" spans="1:36" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="17" t="s">
@@ -5110,7 +5110,7 @@
       <c r="Q58" s="21"/>
       <c r="R58" s="21"/>
       <c r="S58" s="21"/>
-      <c r="T58" s="91"/>
+      <c r="T58" s="74"/>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B59" s="26"/>
@@ -5133,28 +5133,28 @@
       <c r="Q59" s="27"/>
       <c r="R59" s="27"/>
       <c r="S59" s="27"/>
-      <c r="T59" s="30"/>
+      <c r="T59" s="28"/>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="B60" s="31"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="34"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="31"/>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B61" s="26"/>
@@ -5175,7 +5175,7 @@
       <c r="Q61" s="27"/>
       <c r="R61" s="27"/>
       <c r="S61" s="27"/>
-      <c r="T61" s="30"/>
+      <c r="T61" s="28"/>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B62" s="26"/>
@@ -5196,7 +5196,7 @@
       <c r="N62" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="T62" s="30"/>
+      <c r="T62" s="28"/>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B63" s="26"/>
@@ -5206,161 +5206,161 @@
       <c r="G63" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="T63" s="30"/>
+      <c r="T63" s="28"/>
     </row>
     <row r="64" spans="1:36" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="26"/>
-      <c r="T64" s="30"/>
+      <c r="T64" s="28"/>
     </row>
     <row r="65" spans="2:34" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="26"/>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="92" t="s">
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="H65" s="93"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52" t="s">
+      <c r="H65" s="76"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="53"/>
-      <c r="Q65" s="54" t="s">
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="50"/>
+      <c r="Q65" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="R65" s="55"/>
-      <c r="T65" s="30"/>
+      <c r="R65" s="102"/>
+      <c r="T65" s="28"/>
     </row>
     <row r="66" spans="2:34" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B66" s="26"/>
-      <c r="D66" s="57" t="s">
+      <c r="D66" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="94" t="s">
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="H66" s="95"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="60" t="s">
+      <c r="H66" s="78"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
-      <c r="N66" s="60"/>
-      <c r="O66" s="60"/>
-      <c r="P66" s="61"/>
-      <c r="Q66" s="62"/>
-      <c r="R66" s="63"/>
-      <c r="T66" s="30"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="55"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="97"/>
+      <c r="R66" s="98"/>
+      <c r="T66" s="28"/>
     </row>
     <row r="67" spans="2:34" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B67" s="26"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="98"/>
-      <c r="J67" s="67" t="s">
+      <c r="D67" s="105"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="81"/>
+      <c r="J67" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="K67" s="68" t="s">
+      <c r="K67" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="L67" s="68" t="s">
+      <c r="L67" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="M67" s="68" t="s">
+      <c r="M67" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="N67" s="68"/>
-      <c r="O67" s="68"/>
-      <c r="P67" s="69"/>
-      <c r="Q67" s="70"/>
-      <c r="R67" s="71"/>
-      <c r="T67" s="30"/>
+      <c r="N67" s="59"/>
+      <c r="O67" s="59"/>
+      <c r="P67" s="60"/>
+      <c r="Q67" s="103"/>
+      <c r="R67" s="104"/>
+      <c r="T67" s="28"/>
     </row>
     <row r="68" spans="2:34" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B68" s="26"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="100"/>
-      <c r="I68" s="101"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="75"/>
-      <c r="L68" s="75"/>
-      <c r="M68" s="75"/>
-      <c r="N68" s="75"/>
-      <c r="O68" s="75"/>
-      <c r="P68" s="76"/>
-      <c r="Q68" s="77" t="s">
+      <c r="D68" s="107"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="84"/>
+      <c r="J68" s="61"/>
+      <c r="K68" s="62"/>
+      <c r="L68" s="62"/>
+      <c r="M68" s="62"/>
+      <c r="N68" s="62"/>
+      <c r="O68" s="62"/>
+      <c r="P68" s="63"/>
+      <c r="Q68" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="R68" s="78"/>
-      <c r="T68" s="30"/>
+      <c r="R68" s="96"/>
+      <c r="T68" s="28"/>
     </row>
     <row r="69" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B69" s="26"/>
-      <c r="D69" s="79" t="s">
+      <c r="D69" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="E69" s="80"/>
-      <c r="F69" s="80"/>
-      <c r="G69" s="102" t="s">
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="H69" s="103"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="81" t="s">
+      <c r="H69" s="86"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="K69" s="82"/>
-      <c r="L69" s="82"/>
-      <c r="M69" s="82"/>
-      <c r="N69" s="82"/>
-      <c r="O69" s="82"/>
-      <c r="P69" s="83"/>
-      <c r="Q69" s="62"/>
-      <c r="R69" s="63"/>
-      <c r="T69" s="30"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="67"/>
+      <c r="N69" s="67"/>
+      <c r="O69" s="67"/>
+      <c r="P69" s="68"/>
+      <c r="Q69" s="97"/>
+      <c r="R69" s="98"/>
+      <c r="T69" s="28"/>
     </row>
     <row r="70" spans="2:34" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B70" s="26"/>
-      <c r="D70" s="84" t="s">
+      <c r="D70" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="104" t="s">
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="H70" s="105"/>
-      <c r="I70" s="85"/>
-      <c r="J70" s="86"/>
-      <c r="K70" s="87"/>
-      <c r="L70" s="87" t="s">
+      <c r="H70" s="88"/>
+      <c r="I70" s="70"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="M70" s="87"/>
-      <c r="N70" s="87"/>
-      <c r="O70" s="87"/>
-      <c r="P70" s="88"/>
-      <c r="Q70" s="89"/>
-      <c r="R70" s="90"/>
-      <c r="T70" s="30"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
+      <c r="O70" s="72"/>
+      <c r="P70" s="73"/>
+      <c r="Q70" s="99"/>
+      <c r="R70" s="100"/>
+      <c r="T70" s="28"/>
     </row>
     <row r="71" spans="2:34" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B71" s="26"/>
@@ -5370,43 +5370,43 @@
       <c r="E71" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="T71" s="30"/>
+      <c r="T71" s="28"/>
       <c r="AA71" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="AH71" s="110" t="s">
+      <c r="AH71" s="93" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="72" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B72" s="26"/>
-      <c r="T72" s="30"/>
+      <c r="T72" s="28"/>
       <c r="AB72" s="19" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="73" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B73" s="26"/>
-      <c r="D73" s="46" t="s">
+      <c r="D73" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="E73" s="106"/>
-      <c r="F73" s="47"/>
-      <c r="T73" s="30"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="44"/>
+      <c r="T73" s="28"/>
       <c r="AB73" s="19" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="74" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B74" s="26"/>
-      <c r="T74" s="30"/>
+      <c r="T74" s="28"/>
       <c r="AB74" s="19" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="75" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B75" s="26"/>
-      <c r="T75" s="30"/>
+      <c r="T75" s="28"/>
       <c r="AB75" s="19" t="s">
         <v>176</v>
       </c>
@@ -5430,8 +5430,8 @@
       <c r="Q76" s="27"/>
       <c r="R76" s="27"/>
       <c r="S76" s="27"/>
-      <c r="T76" s="30"/>
-      <c r="AB76" s="110" t="s">
+      <c r="T76" s="28"/>
+      <c r="AB76" s="93" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5443,11 +5443,11 @@
       </c>
       <c r="E77" s="27"/>
       <c r="F77" s="27"/>
-      <c r="G77" s="46" t="s">
+      <c r="G77" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="H77" s="106"/>
-      <c r="I77" s="47" t="s">
+      <c r="H77" s="89"/>
+      <c r="I77" s="44" t="s">
         <v>170</v>
       </c>
       <c r="J77" s="27"/>
@@ -5460,15 +5460,15 @@
       <c r="Q77" s="27"/>
       <c r="R77" s="27"/>
       <c r="S77" s="27"/>
-      <c r="T77" s="30"/>
+      <c r="T77" s="28"/>
     </row>
     <row r="78" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B78" s="26"/>
       <c r="C78" s="27"/>
-      <c r="D78" s="46" t="s">
+      <c r="D78" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="E78" s="47"/>
+      <c r="E78" s="44"/>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
@@ -5483,28 +5483,28 @@
       <c r="Q78" s="27"/>
       <c r="R78" s="27"/>
       <c r="S78" s="27"/>
-      <c r="T78" s="30"/>
+      <c r="T78" s="28"/>
     </row>
     <row r="79" spans="2:34" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="107"/>
-      <c r="C79" s="108"/>
-      <c r="D79" s="108"/>
-      <c r="E79" s="108"/>
-      <c r="F79" s="108"/>
-      <c r="G79" s="108"/>
-      <c r="H79" s="108"/>
-      <c r="I79" s="108"/>
-      <c r="J79" s="108"/>
-      <c r="K79" s="108"/>
-      <c r="L79" s="108"/>
-      <c r="M79" s="108"/>
-      <c r="N79" s="108"/>
-      <c r="O79" s="108"/>
-      <c r="P79" s="108"/>
-      <c r="Q79" s="108"/>
-      <c r="R79" s="108"/>
-      <c r="S79" s="108"/>
-      <c r="T79" s="109"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="91"/>
+      <c r="G79" s="91"/>
+      <c r="H79" s="91"/>
+      <c r="I79" s="91"/>
+      <c r="J79" s="91"/>
+      <c r="K79" s="91"/>
+      <c r="L79" s="91"/>
+      <c r="M79" s="91"/>
+      <c r="N79" s="91"/>
+      <c r="O79" s="91"/>
+      <c r="P79" s="91"/>
+      <c r="Q79" s="91"/>
+      <c r="R79" s="91"/>
+      <c r="S79" s="91"/>
+      <c r="T79" s="92"/>
     </row>
     <row r="82" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="17" t="s">
@@ -5563,18 +5563,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="I4:O5"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="O48:P50"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="O51:P53"/>
     <mergeCell ref="Q65:R67"/>
     <mergeCell ref="D67:F67"/>
     <mergeCell ref="D68:F68"/>
     <mergeCell ref="Q68:R70"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="I4:O5"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="O48:P50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5590,7 +5590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>

--- a/doc/成績アプリ.xlsx
+++ b/doc/成績アプリ.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\django_app\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\work\django_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BA0500-3F4E-4BF2-B4BC-D3B80CE73C99}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="10185" activeTab="1"/>
+    <workbookView xWindow="3348" yWindow="396" windowWidth="17280" windowHeight="11004" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要求" sheetId="1" r:id="rId1"/>
     <sheet name="テーブル" sheetId="3" r:id="rId2"/>
     <sheet name="参考URL" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="119">
   <si>
     <t>メニューボタン</t>
     <phoneticPr fontId="1"/>
@@ -588,11 +590,60 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>person[4]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア入力情報</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>serveTurn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>progress[7]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>serveWin[7]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期化</t>
+    <rPh sb="0" eb="3">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -949,20 +1000,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="グループ化 7"/>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="357680" y="457201"/>
-          <a:ext cx="494644" cy="295275"/>
+          <a:off x="319580" y="447676"/>
+          <a:ext cx="441304" cy="287655"/>
           <a:chOff x="4146659" y="958741"/>
           <a:chExt cx="493330" cy="293961"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="角丸四角形 2"/>
+          <xdr:cNvPr id="3" name="角丸四角形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -999,7 +1062,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="5" name="直線コネクタ 4"/>
+          <xdr:cNvPr id="5" name="直線コネクタ 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1033,7 +1102,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+          <xdr:cNvPr id="6" name="直線コネクタ 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1067,7 +1142,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="7" name="直線コネクタ 6"/>
+          <xdr:cNvPr id="7" name="直線コネクタ 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1117,7 +1198,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1414,20 +1501,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AG21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="2.25" style="2"/>
+    <col min="1" max="16384" width="2.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1448,7 +1535,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1469,7 +1556,7 @@
       <c r="S4" s="7"/>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -1496,7 +1583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1520,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1544,7 +1631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1568,7 +1655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1592,7 +1679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1619,7 +1706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1646,7 +1733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1671,7 +1758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
       <c r="AA13" s="15" t="s">
         <v>15</v>
       </c>
@@ -1679,17 +1766,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="AE14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1697,7 +1784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1705,7 +1792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1722,25 +1809,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="18"/>
-    <col min="2" max="2" width="14.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="58.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.21875" style="18"/>
+    <col min="2" max="2" width="14.44140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="58.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="2.25" style="17"/>
+    <col min="6" max="6" width="55.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2.21875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="54.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="47.4" x14ac:dyDescent="0.2">
       <c r="D1" s="19" t="s">
         <v>47</v>
       </c>
@@ -1751,14 +1838,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="17" t="s">
         <v>31</v>
       </c>
@@ -1770,7 +1857,7 @@
       </c>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>32</v>
       </c>
@@ -1782,7 +1869,7 @@
       </c>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
         <v>33</v>
       </c>
@@ -1791,7 +1878,7 @@
       </c>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>89</v>
       </c>
@@ -1805,7 +1892,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>90</v>
       </c>
@@ -1813,7 +1900,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
         <v>35</v>
       </c>
@@ -1821,7 +1908,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
         <v>36</v>
       </c>
@@ -1829,7 +1916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="17" t="s">
         <v>37</v>
       </c>
@@ -1837,7 +1924,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
         <v>38</v>
       </c>
@@ -1845,7 +1932,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="27" t="s">
         <v>39</v>
       </c>
@@ -1853,7 +1940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
         <v>91</v>
       </c>
@@ -1861,14 +1948,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
         <v>34</v>
       </c>
@@ -1879,7 +1966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="17" t="s">
         <v>52</v>
       </c>
@@ -1887,7 +1974,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="17" t="s">
         <v>53</v>
       </c>
@@ -1895,7 +1982,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" s="17" t="s">
         <v>54</v>
       </c>
@@ -1903,7 +1990,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="17" t="s">
         <v>55</v>
       </c>
@@ -1911,14 +1998,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="17" t="s">
         <v>59</v>
       </c>
@@ -1926,7 +2013,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="17" t="s">
         <v>33</v>
       </c>
@@ -1934,7 +2021,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="17" t="s">
         <v>60</v>
       </c>
@@ -1942,7 +2029,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="17" t="s">
         <v>61</v>
       </c>
@@ -1950,7 +2037,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="s">
         <v>34</v>
       </c>
@@ -1964,7 +2051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="27" t="s">
         <v>52</v>
       </c>
@@ -1972,7 +2059,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="17" t="s">
         <v>62</v>
       </c>
@@ -1980,7 +2067,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="17" t="s">
         <v>63</v>
       </c>
@@ -1988,7 +2075,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="28" t="s">
         <v>65</v>
       </c>
@@ -1996,7 +2083,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="28" t="s">
         <v>91</v>
       </c>
@@ -2007,14 +2094,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
         <v>69</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="24"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="17" t="s">
         <v>92</v>
       </c>
@@ -2028,7 +2115,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B36" s="17" t="s">
         <v>70</v>
       </c>
@@ -2036,37 +2123,37 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B38" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43" s="17" t="s">
         <v>80</v>
       </c>
@@ -2074,7 +2161,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" s="17" t="s">
         <v>81</v>
       </c>
@@ -2082,7 +2169,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" s="17" t="s">
         <v>82</v>
       </c>
@@ -2090,7 +2177,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" s="17" t="s">
         <v>83</v>
       </c>
@@ -2098,7 +2185,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" s="17" t="s">
         <v>84</v>
       </c>
@@ -2106,7 +2193,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" s="17" t="s">
         <v>85</v>
       </c>
@@ -2114,7 +2201,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B49" s="17" t="s">
         <v>86</v>
       </c>
@@ -2122,7 +2209,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B50" s="17" t="s">
         <v>87</v>
       </c>
@@ -2130,14 +2217,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D52" s="23"/>
       <c r="E52" s="24"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B53" s="17" t="s">
         <v>92</v>
       </c>
@@ -2145,7 +2232,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54" s="17" t="s">
         <v>89</v>
       </c>
@@ -2153,12 +2240,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B56" s="17" t="s">
         <v>97</v>
       </c>
@@ -2166,7 +2253,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B57" s="17" t="s">
         <v>98</v>
       </c>
@@ -2174,7 +2261,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58" s="17" t="s">
         <v>99</v>
       </c>
@@ -2182,7 +2269,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59" s="17" t="s">
         <v>100</v>
       </c>
@@ -2190,7 +2277,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60" s="17" t="s">
         <v>101</v>
       </c>
@@ -2198,7 +2285,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B61" s="17" t="s">
         <v>102</v>
       </c>
@@ -2206,7 +2293,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B62" s="17" t="s">
         <v>103</v>
       </c>
@@ -2214,7 +2301,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B63" s="17" t="s">
         <v>104</v>
       </c>
@@ -2222,7 +2309,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B64" s="17" t="s">
         <v>106</v>
       </c>
@@ -2233,7 +2320,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
         <v>88</v>
       </c>
@@ -2248,20 +2335,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2269,7 +2356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2277,7 +2364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2285,7 +2372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2293,23 +2380,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>94</v>
       </c>
@@ -2317,9 +2404,75 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" location="y2046859" display="https://www.magata.net/memo/index.php?pytest%C6%FE%CC%E7 - y2046859"/>
-    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId1" location="y2046859" display="https://www.magata.net/memo/index.php?pytest%C6%FE%CC%E7 - y2046859" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD45EEF-A01F-4860-95C2-D70547B4E4B2}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/成績アプリ.xlsx
+++ b/doc/成績アプリ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\work\django_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BA0500-3F4E-4BF2-B4BC-D3B80CE73C99}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6312A8-4B9B-4389-B190-0AFED6F5EDDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="396" windowWidth="17280" windowHeight="11004" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4764" yWindow="672" windowWidth="17808" windowHeight="11004" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要求" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="125">
   <si>
     <t>メニューボタン</t>
     <phoneticPr fontId="1"/>
@@ -636,6 +636,57 @@
     <t>初期化</t>
     <rPh sb="0" eb="3">
       <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スコア入力</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・jsonファイル読み込み</t>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・データベース操作</t>
+    <rPh sb="7" eb="9">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クラウド登録</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スコア表示　スコアシートとの切り替え</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -989,13 +1040,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>14780</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>166524</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1011,7 +1062,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="319580" y="447676"/>
+          <a:off x="319580" y="2626996"/>
           <a:ext cx="441304" cy="287655"/>
           <a:chOff x="4146659" y="958741"/>
           <a:chExt cx="493330" cy="293961"/>
@@ -1187,13 +1238,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>123266</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1502,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AG21"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1513,290 +1564,323 @@
     <col min="1" max="16384" width="2.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="5"/>
-    </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="11"/>
-      <c r="Z5" s="2" t="s">
+    <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="8"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="11"/>
+      <c r="Z18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AG5" s="14" t="s">
+      <c r="AG18" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="8"/>
-      <c r="AA6" s="14" t="s">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="8"/>
+      <c r="AA19" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="8"/>
-      <c r="AA7" s="15" t="s">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="8"/>
+      <c r="AA20" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="8"/>
-      <c r="AA8" s="2" t="s">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="8"/>
+      <c r="AA21" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="8"/>
-      <c r="AA9" s="2" t="s">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="8"/>
+      <c r="AA22" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="8"/>
-      <c r="AA10" s="14" t="s">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="8"/>
+      <c r="AA23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AE23" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="8"/>
-      <c r="AA11" s="15" t="s">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="8"/>
+      <c r="AA24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AE24" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="8"/>
-      <c r="AA12" s="15"/>
-      <c r="AE12" s="2" t="s">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="8"/>
+      <c r="AA25" s="15"/>
+      <c r="AE25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="AA13" s="15" t="s">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AA26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AE13" s="2" t="s">
+      <c r="AE26" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="AE14" s="2" t="s">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AE27" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+    <row r="31" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1812,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -2415,7 +2499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD45EEF-A01F-4860-95C2-D70547B4E4B2}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/doc/成績アプリ.xlsx
+++ b/doc/成績アプリ.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\work\django_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6312A8-4B9B-4389-B190-0AFED6F5EDDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EA47C7-2330-4084-AE2B-61F845D5C24A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4764" yWindow="672" windowWidth="17808" windowHeight="11004" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1944" yWindow="1680" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要求" sheetId="1" r:id="rId1"/>
     <sheet name="テーブル" sheetId="3" r:id="rId2"/>
-    <sheet name="参考URL" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="設計" sheetId="4" r:id="rId3"/>
+    <sheet name="参考URL" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="231">
   <si>
     <t>メニューボタン</t>
     <phoneticPr fontId="1"/>
@@ -404,31 +404,6 @@
   </si>
   <si>
     <t>chNum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所属テーブル（登録前はTEMP(=0)→登録時は一番大きいtblId）</t>
-    <rPh sb="0" eb="2">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オオ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -591,102 +566,771 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>class</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>person[4]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スコア入力情報</t>
-    <rPh sb="3" eb="5">
+    <t>class TblDaily(models.Model):</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>totalGame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>temp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trueならば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題点</t>
+    <rPh sb="0" eb="3">
+      <t>モンダイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pythonanywhereでcssが有効にならない</t>
+    <rPh sb="19" eb="21">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体試験がうまくいかない</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示系app</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class Disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力系app</t>
+    <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>serveTurn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>progress[7]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>serveWin[7]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期化</t>
-    <rPh sb="0" eb="3">
-      <t>ショキカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニュー画面</t>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class Input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力系app</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class Output</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MENU画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・スコア入力</t>
+    <t>ランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デイリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デイリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◀</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▶</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019年前期</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019/01/05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合数：20</t>
+    <rPh sb="0" eb="2">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加人数：20</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンズウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019/01/06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮田、住野</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スミノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野上、高橋</t>
+    <rPh sb="0" eb="2">
+      <t>ノガミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>志水</t>
+    <rPh sb="0" eb="2">
+      <t>シミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前田</t>
+    <rPh sb="0" eb="2">
+      <t>マエダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>榊</t>
+    <rPh sb="0" eb="1">
+      <t>サカキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和田</t>
+    <rPh sb="0" eb="2">
+      <t>ワダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>playerNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※権限　高</t>
+    <rPh sb="1" eb="3">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績入力</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績入力</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エトセトラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮登録：3</t>
+    <rPh sb="0" eb="3">
+      <t>カリトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gameNo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイブレーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮登録</t>
+    <rPh sb="0" eb="3">
+      <t>カリトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他：</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消去</t>
+    <rPh sb="0" eb="2">
+      <t>ショウキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他コマンド</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバ登録</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加人数</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンズウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績登録</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績出力</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理データ</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青地は優先度低</t>
+    <rPh sb="0" eb="2">
+      <t>アオジ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/10の成績は入力途中です。</t>
+    <rPh sb="5" eb="7">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合数</t>
+    <rPh sb="0" eb="2">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gross</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Net</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日数</t>
+    <rPh sb="0" eb="2">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日高</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>澤田</t>
+    <rPh sb="0" eb="2">
+      <t>サワダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.544</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.395</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.518</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.361</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規定日数</t>
+    <rPh sb="0" eb="2">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日数 xx以上</t>
+    <rPh sb="0" eb="2">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規定試合数</t>
+    <rPh sb="0" eb="2">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xx以上</t>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア入力</t>
+  </si>
+  <si>
+    <t>jsonファイル読み込み</t>
+  </si>
+  <si>
+    <t>データベース操作</t>
+  </si>
+  <si>
+    <t>スコア表示　スコアシートとの切り替え</t>
+  </si>
+  <si>
+    <t>クラウド登録</t>
+  </si>
+  <si>
+    <t>要求</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認事項</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルの入出力。json, csvファイルを入力、csvファイルを出力</t>
+    <rPh sb="5" eb="8">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付を一括で変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDを一括で変更</t>
+    <rPh sb="3" eb="5">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル入出力</t>
+    <rPh sb="4" eb="7">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のファイルを読み込み</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>member.json</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Score20xx_x.json</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意点を記載</t>
+    <rPh sb="0" eb="3">
+      <t>チュウイテン</t>
+    </rPh>
     <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・jsonファイル読み込み</t>
-    <rPh sb="9" eb="10">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバーデータを読み込む場合はファイル名が[member]でないと読み込めません。</t>
+    <rPh sb="8" eb="9">
       <t>ヨ</t>
     </rPh>
-    <rPh sb="11" eb="12">
+    <rPh sb="10" eb="11">
       <t>コ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・データベース操作</t>
-    <rPh sb="7" eb="9">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・クラウド登録</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・スコア表示　スコアシートとの切り替え</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カ</t>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxxx.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力（エクスポート）はscoreとmember</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -695,7 +1339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,36 +1356,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -767,8 +1386,53 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,8 +1463,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -908,105 +1578,1190 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1017,6 +2772,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66CCFF"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF99FF99"/>
@@ -1038,16 +2794,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>14780</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100505</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>166524</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1062,8 +2818,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="319580" y="2626996"/>
-          <a:ext cx="441304" cy="287655"/>
+          <a:off x="260525" y="495300"/>
+          <a:ext cx="522430" cy="175261"/>
           <a:chOff x="4146659" y="958741"/>
           <a:chExt cx="493330" cy="293961"/>
         </a:xfrm>
@@ -1236,16 +2992,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123266</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1259,9 +3015,882 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="838200" y="857250"/>
+          <a:ext cx="2714626" cy="121584"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100505</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="260525" y="5311140"/>
+          <a:ext cx="522430" cy="175261"/>
+          <a:chOff x="4146659" y="958741"/>
+          <a:chExt cx="493330" cy="293961"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="角丸四角形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4146659" y="958741"/>
+            <a:ext cx="493330" cy="293961"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="直線コネクタ 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1031328"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="直線コネクタ 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1103586"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="直線コネクタ 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1175845"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1098177" y="459441"/>
-          <a:ext cx="2935941" cy="11207"/>
+          <a:off x="2952750" y="4133850"/>
+          <a:ext cx="733425" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100505</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="グループ化 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="260525" y="8122920"/>
+          <a:ext cx="522430" cy="175261"/>
+          <a:chOff x="4146659" y="958741"/>
+          <a:chExt cx="493330" cy="293961"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="角丸四角形 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4146659" y="958741"/>
+            <a:ext cx="493330" cy="293961"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="18" name="直線コネクタ 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1031328"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="19" name="直線コネクタ 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1103586"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="20" name="直線コネクタ 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1175845"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="847726" y="3390900"/>
+          <a:ext cx="2857499" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="下カーブ矢印 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="4229100"/>
+          <a:ext cx="1209675" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1419225" y="9324975"/>
+          <a:ext cx="2524125" cy="1057276"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100505</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="グループ化 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="260525" y="2560320"/>
+          <a:ext cx="522430" cy="175261"/>
+          <a:chOff x="4146659" y="958741"/>
+          <a:chExt cx="493330" cy="293961"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="角丸四角形 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4146659" y="958741"/>
+            <a:ext cx="493330" cy="293961"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="31" name="直線コネクタ 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1031328"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="32" name="直線コネクタ 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1103586"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="33" name="直線コネクタ 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4236983" y="1175845"/>
+            <a:ext cx="282465" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1819275" y="3543300"/>
+          <a:ext cx="1971675" cy="533401"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1553,863 +4182,2382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AY118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z79" sqref="Z79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="2.21875" style="2"/>
+    <col min="1" max="16384" width="2.33203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" ht="11.4" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B3" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="22"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="24"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="111" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="27"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="30"/>
+      <c r="Z5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="27"/>
+      <c r="AA6" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="32"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="27"/>
+      <c r="AA7" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS7" s="33"/>
+      <c r="AT7" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="27"/>
+      <c r="AA8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS8" s="33"/>
+      <c r="AU8" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="27"/>
+      <c r="AA9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS9" s="34"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="27"/>
+      <c r="AA10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS10" s="32"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="27"/>
+      <c r="AA11" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="36"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="33"/>
+      <c r="AT11" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="27"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="34"/>
+      <c r="AU12" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AA13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="37"/>
+      <c r="AT13" s="38" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="36"/>
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="36"/>
+      <c r="AY13" s="36"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="36" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="AV14" s="36"/>
+      <c r="AW14" s="36"/>
+      <c r="AX14" s="36"/>
+      <c r="AY14" s="36"/>
+    </row>
+    <row r="16" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" ht="11.4" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B18" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="8"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="11"/>
-      <c r="Z18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="8"/>
-      <c r="AA19" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="8"/>
-      <c r="AA20" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="8"/>
-      <c r="AA21" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="8"/>
-      <c r="AA22" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="8"/>
-      <c r="AA23" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="8"/>
-      <c r="AA24" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="8"/>
-      <c r="AA25" s="15"/>
-      <c r="AE25" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="AA26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="AE27" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="24"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="27"/>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="30"/>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="27"/>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B22" s="25"/>
+      <c r="C22" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="T22" s="27"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B23" s="25"/>
+      <c r="T23" s="27"/>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B24" s="25"/>
+      <c r="C24" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" s="37"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="P24" s="32"/>
+      <c r="T24" s="27"/>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B25" s="25"/>
+      <c r="C25" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" s="37"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="P25" s="32"/>
+      <c r="T25" s="27"/>
+      <c r="Z25" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE25" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH25" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B26" s="25"/>
+      <c r="C26" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="H26" s="26"/>
+      <c r="I26" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" s="26"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="P26" s="33"/>
+      <c r="T26" s="27"/>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B27" s="25"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="33"/>
+      <c r="T27" s="27"/>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B28" s="25"/>
+      <c r="T28" s="27"/>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B29" s="25"/>
+      <c r="D29" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="T29" s="27"/>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B30" s="25"/>
+      <c r="T30" s="27"/>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B31" s="25"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="J31" s="26"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="P31" s="33"/>
+      <c r="T31" s="27"/>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B32" s="25"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="J32" s="26"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="P32" s="33"/>
+      <c r="T32" s="27"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B33" s="25"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="H33" s="26"/>
+      <c r="I33" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="J33" s="26"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="P33" s="33"/>
+      <c r="T33" s="27"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="27"/>
+    </row>
+    <row r="36" spans="1:36" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" ht="11.4" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B38" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="M38" s="22"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="24"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="27"/>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="30"/>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="27"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B42" s="25"/>
+      <c r="C42" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="27"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B43" s="25"/>
+      <c r="C43" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="27"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="27"/>
+      <c r="Z44" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="S45" s="43"/>
+      <c r="T45" s="27"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="27"/>
+    </row>
+    <row r="47" spans="1:36" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="S47" s="43"/>
+      <c r="T47" s="27"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="37"/>
+      <c r="AC47" s="37"/>
+      <c r="AD47" s="37"/>
+      <c r="AE47" s="37"/>
+      <c r="AF47" s="37"/>
+      <c r="AG47" s="37"/>
+      <c r="AH47" s="37"/>
+      <c r="AI47" s="37"/>
+      <c r="AJ47" s="32"/>
+    </row>
+    <row r="48" spans="1:36" ht="11.4" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="P48" s="98"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="27"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC48" s="43"/>
+      <c r="AD48" s="26"/>
+      <c r="AE48" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF48" s="43"/>
+      <c r="AG48" s="26"/>
+      <c r="AH48" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI48" s="43"/>
+      <c r="AJ48" s="33"/>
+    </row>
+    <row r="49" spans="1:36" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="99"/>
+      <c r="P49" s="100"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="27"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="29"/>
+      <c r="AF49" s="29"/>
+      <c r="AG49" s="29"/>
+      <c r="AH49" s="29"/>
+      <c r="AI49" s="29"/>
+      <c r="AJ49" s="34"/>
+    </row>
+    <row r="50" spans="1:36" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="I50" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="J50" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="K50" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="L50" s="58"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="101"/>
+      <c r="P50" s="102"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="27"/>
+    </row>
+    <row r="51" spans="1:36" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="25"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="62"/>
+      <c r="O51" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="P51" s="108"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="27"/>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B52" s="25"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="99"/>
+      <c r="P52" s="100"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="27"/>
+    </row>
+    <row r="53" spans="1:36" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="25"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="109"/>
+      <c r="P53" s="110"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="27"/>
+    </row>
+    <row r="54" spans="1:36" ht="11.4" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="25"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="27"/>
+    </row>
+    <row r="56" spans="1:36" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" ht="11.4" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="73"/>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B59" s="25"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="26"/>
+      <c r="S59" s="26"/>
+      <c r="T59" s="27"/>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B60" s="28"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="30"/>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B61" s="25"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="26"/>
+      <c r="T61" s="27"/>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B62" s="25"/>
+      <c r="D62" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="T62" s="27"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B63" s="25"/>
+      <c r="D63" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="T63" s="27"/>
+    </row>
+    <row r="64" spans="1:36" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="25"/>
+      <c r="T64" s="27"/>
+    </row>
+    <row r="65" spans="2:34" ht="11.4" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="25"/>
+      <c r="D65" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="H65" s="75"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="N65" s="48"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="R65" s="98"/>
+      <c r="T65" s="27"/>
+    </row>
+    <row r="66" spans="2:34" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="25"/>
+      <c r="D66" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="H66" s="77"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="L66" s="54"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="55"/>
+      <c r="Q66" s="99"/>
+      <c r="R66" s="100"/>
+      <c r="T66" s="27"/>
+    </row>
+    <row r="67" spans="2:34" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="25"/>
+      <c r="D67" s="103"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="104"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="79"/>
+      <c r="I67" s="80"/>
+      <c r="J67" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="K67" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="L67" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="M67" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="N67" s="58"/>
+      <c r="O67" s="58"/>
+      <c r="P67" s="59"/>
+      <c r="Q67" s="101"/>
+      <c r="R67" s="102"/>
+      <c r="T67" s="27"/>
+    </row>
+    <row r="68" spans="2:34" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="25"/>
+      <c r="D68" s="105"/>
+      <c r="E68" s="106"/>
+      <c r="F68" s="106"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="82"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="61"/>
+      <c r="P68" s="62"/>
+      <c r="Q68" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="R68" s="108"/>
+      <c r="T68" s="27"/>
+    </row>
+    <row r="69" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B69" s="25"/>
+      <c r="D69" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="H69" s="85"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="K69" s="66"/>
+      <c r="L69" s="66"/>
+      <c r="M69" s="66"/>
+      <c r="N69" s="66"/>
+      <c r="O69" s="66"/>
+      <c r="P69" s="67"/>
+      <c r="Q69" s="99"/>
+      <c r="R69" s="100"/>
+      <c r="T69" s="27"/>
+    </row>
+    <row r="70" spans="2:34" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="25"/>
+      <c r="D70" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="H70" s="87"/>
+      <c r="I70" s="69"/>
+      <c r="J70" s="70"/>
+      <c r="K70" s="71"/>
+      <c r="L70" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="M70" s="71"/>
+      <c r="N70" s="71"/>
+      <c r="O70" s="71"/>
+      <c r="P70" s="72"/>
+      <c r="Q70" s="109"/>
+      <c r="R70" s="110"/>
+      <c r="T70" s="27"/>
+    </row>
+    <row r="71" spans="2:34" ht="11.4" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="25"/>
+      <c r="D71" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="T71" s="27"/>
+      <c r="AA71" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH71" s="92" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B72" s="25"/>
+      <c r="T72" s="27"/>
+      <c r="AB72" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B73" s="25"/>
+      <c r="D73" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73" s="88"/>
+      <c r="F73" s="43"/>
+      <c r="T73" s="27"/>
+      <c r="AB73" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B74" s="25"/>
+      <c r="T74" s="27"/>
+      <c r="AB74" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B75" s="25"/>
+      <c r="T75" s="27"/>
+      <c r="AB75" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B76" s="25"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="26"/>
+      <c r="Q76" s="26"/>
+      <c r="R76" s="26"/>
+      <c r="S76" s="26"/>
+      <c r="T76" s="27"/>
+      <c r="AB76" s="92" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B77" s="25"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="H77" s="88"/>
+      <c r="I77" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="26"/>
+      <c r="Q77" s="26"/>
+      <c r="R77" s="26"/>
+      <c r="S77" s="26"/>
+      <c r="T77" s="27"/>
+    </row>
+    <row r="78" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B78" s="25"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" s="43"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26"/>
+      <c r="R78" s="26"/>
+      <c r="S78" s="26"/>
+      <c r="T78" s="27"/>
+    </row>
+    <row r="79" spans="2:34" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="89"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="90"/>
+      <c r="J79" s="90"/>
+      <c r="K79" s="90"/>
+      <c r="L79" s="90"/>
+      <c r="M79" s="90"/>
+      <c r="N79" s="90"/>
+      <c r="O79" s="90"/>
+      <c r="P79" s="90"/>
+      <c r="Q79" s="90"/>
+      <c r="R79" s="90"/>
+      <c r="S79" s="90"/>
+      <c r="T79" s="91"/>
+    </row>
+    <row r="82" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C83" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C84" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C85" s="18" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="89" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C92" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D93" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B96" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B101" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B102" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B116" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B117" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B118" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="Q65:R67"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="Q68:R70"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="I4:O5"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="O48:P50"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="O51:P53"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C25" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.21875" style="18"/>
-    <col min="2" max="2" width="14.44140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="58.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="2.21875" style="17"/>
+    <col min="1" max="1" width="2.33203125" style="4"/>
+    <col min="2" max="2" width="14.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="70.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2.33203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="47.4" x14ac:dyDescent="0.2">
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="25" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="28" t="s">
+      <c r="D32" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="C35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="17" t="s">
+    <row r="36" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="D54" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="D55" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="17" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B36" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="24"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B58" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B61" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B63" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B64" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="24"/>
+      <c r="D68" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2420,15 +6568,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="96"/>
+    <col min="2" max="16384" width="2.33203125" style="93"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="95" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="93" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="93" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="93" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="93" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="93" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="93" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2464,7 +6668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
@@ -2477,86 +6681,21 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" location="y2046859" display="https://www.magata.net/memo/index.php?pytest%C6%FE%CC%E7 - y2046859" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId1" location="y2046859" display="https://www.magata.net/memo/index.php?pytest%C6%FE%CC%E7 - y2046859" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD45EEF-A01F-4860-95C2-D70547B4E4B2}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
 </worksheet>
 </file>
--- a/doc/成績アプリ.xlsx
+++ b/doc/成績アプリ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\work\django_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EA47C7-2330-4084-AE2B-61F845D5C24A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8D3E39-907B-4C63-9C27-C2BF205C5642}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1944" yWindow="1680" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3504" yWindow="192" windowWidth="10992" windowHeight="10584" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要求" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,23 @@
     <sheet name="設計" sheetId="4" r:id="rId3"/>
     <sheet name="参考URL" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="254">
   <si>
     <t>メニューボタン</t>
     <phoneticPr fontId="1"/>
@@ -234,9 +240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>class TblScore(models.Model):</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -269,9 +272,6 @@
       <t>ショゾク</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>models.DateField(null=True)</t>
   </si>
   <si>
     <t>models.PositiveIntegerField(null=True)</t>
@@ -586,10 +586,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Trueならば</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>問題点</t>
     <rPh sb="0" eb="3">
       <t>モンダイテン</t>
@@ -1332,6 +1328,175 @@
     <rPh sb="0" eb="2">
       <t>シュツリョク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア情報(日)</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランク（期）</t>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>models.DateField(null=True)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>models.BooleanField(default=False, null=True)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>models.NullBooleanField(null=True)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意図：閲覧中のRANKテーブルが頻繁に更新されるのを防ぐ。また前回使用していたupdateDateの仕組みを廃止したため
+Trueならば</t>
+    <rPh sb="0" eb="2">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒンパン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ハイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class TblScore(models.Model):</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>models.ForeignKey(TblMember, on_delete=models.PROTECT, related_name = "player_Member")</t>
+  </si>
+  <si>
+    <t>models.ForeignKey(TblMember, on_delete=models.PROTECT, related_name = "pair_Member")</t>
+  </si>
+  <si>
+    <t>時期が外れているときは「登録してもいいですか？」と確認メッセージを表示</t>
+    <rPh sb="0" eb="2">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>models.PositiveIntegerField()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>models.CharField()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>models.BooleanField(default=False)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>models.IntegerField(null=True)</t>
+  </si>
+  <si>
+    <t>models.IntegerField(null=True)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>models.ForeignKey(TblManage, on_delete=models.CASCADE)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>models.FloatField(null=True)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー情報(期)</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">非会員はnull
+</t>
+    <rPh sb="0" eb="3">
+      <t>ヒカイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>models.CharField(null=True)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>models.ForeignKey(TblMember, on_delete=models.PROTECT)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>models.ForeignKey(TblDaily, on_delete=models.PROTECT)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4182,10 +4347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY118"/>
+  <dimension ref="A1:AY119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z79" sqref="Z79"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
@@ -4195,33 +4360,33 @@
   <sheetData>
     <row r="1" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="11.4" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="21"/>
       <c r="G3" s="22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="21"/>
       <c r="L3" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M3" s="22"/>
       <c r="N3" s="23"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
@@ -4235,11 +4400,11 @@
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
       <c r="G4" s="111" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H4" s="26"/>
       <c r="I4" s="113" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J4" s="113"/>
       <c r="K4" s="113"/>
@@ -4249,7 +4414,7 @@
       <c r="O4" s="113"/>
       <c r="P4" s="26"/>
       <c r="Q4" s="113" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R4" s="26"/>
       <c r="S4" s="26"/>
@@ -4332,7 +4497,7 @@
       </c>
       <c r="AS7" s="33"/>
       <c r="AT7" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.2">
@@ -4360,7 +4525,7 @@
       </c>
       <c r="AS8" s="33"/>
       <c r="AU8" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.2">
@@ -4460,7 +4625,7 @@
       <c r="AR11" s="36"/>
       <c r="AS11" s="33"/>
       <c r="AT11" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.2">
@@ -4505,7 +4670,7 @@
       <c r="AR12" s="36"/>
       <c r="AS12" s="34"/>
       <c r="AU12" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.2">
@@ -4533,7 +4698,7 @@
       <c r="AR13" s="36"/>
       <c r="AS13" s="37"/>
       <c r="AT13" s="38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AU13" s="36"/>
       <c r="AV13" s="36"/>
@@ -4565,7 +4730,7 @@
       <c r="AS14" s="29"/>
       <c r="AT14" s="38"/>
       <c r="AU14" s="36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AV14" s="36"/>
       <c r="AW14" s="36"/>
@@ -4574,33 +4739,33 @@
     </row>
     <row r="16" spans="1:51" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="2:34" ht="11.4" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
       <c r="G18" s="22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M18" s="22"/>
       <c r="N18" s="23"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
@@ -4673,10 +4838,10 @@
     <row r="22" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B22" s="25"/>
       <c r="C22" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="T22" s="27"/>
     </row>
@@ -4687,29 +4852,29 @@
     <row r="24" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B24" s="25"/>
       <c r="C24" s="44" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="114" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G24" s="114"/>
       <c r="H24" s="114"/>
       <c r="I24" s="44" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J24" s="37"/>
       <c r="K24" s="32"/>
       <c r="L24" s="37" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M24" s="37"/>
       <c r="N24" s="37"/>
       <c r="O24" s="44" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P24" s="32"/>
       <c r="T24" s="27"/>
@@ -4717,68 +4882,68 @@
     <row r="25" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B25" s="25"/>
       <c r="C25" s="44" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H25" s="37"/>
       <c r="I25" s="44" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J25" s="37"/>
       <c r="K25" s="32"/>
       <c r="L25" s="37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M25" s="37"/>
       <c r="N25" s="37"/>
       <c r="O25" s="44" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P25" s="32"/>
       <c r="T25" s="27"/>
       <c r="Z25" s="18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AE25" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AH25" s="18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B26" s="25"/>
       <c r="C26" s="50" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E26" s="33"/>
       <c r="F26" s="26"/>
       <c r="G26" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="50" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J26" s="26"/>
       <c r="K26" s="33"/>
       <c r="L26" s="26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M26" s="26"/>
       <c r="N26" s="26"/>
       <c r="O26" s="50" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P26" s="33"/>
       <c r="T26" s="27"/>
@@ -4808,10 +4973,10 @@
     <row r="29" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B29" s="25"/>
       <c r="D29" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="T29" s="27"/>
     </row>
@@ -4823,26 +4988,26 @@
       <c r="B31" s="25"/>
       <c r="C31" s="50"/>
       <c r="D31" s="50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="26"/>
       <c r="G31" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H31" s="26"/>
       <c r="I31" s="50" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J31" s="26"/>
       <c r="K31" s="33"/>
       <c r="L31" s="26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M31" s="26"/>
       <c r="N31" s="26"/>
       <c r="O31" s="50" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P31" s="33"/>
       <c r="T31" s="27"/>
@@ -4851,26 +5016,26 @@
       <c r="B32" s="25"/>
       <c r="C32" s="50"/>
       <c r="D32" s="50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="50" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J32" s="26"/>
       <c r="K32" s="33"/>
       <c r="L32" s="26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M32" s="26"/>
       <c r="N32" s="26"/>
       <c r="O32" s="50" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P32" s="33"/>
       <c r="T32" s="27"/>
@@ -4879,26 +5044,26 @@
       <c r="B33" s="25"/>
       <c r="C33" s="50"/>
       <c r="D33" s="50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H33" s="26"/>
       <c r="I33" s="50" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J33" s="26"/>
       <c r="K33" s="33"/>
       <c r="L33" s="26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M33" s="26"/>
       <c r="N33" s="26"/>
       <c r="O33" s="50" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P33" s="33"/>
       <c r="T33" s="27"/>
@@ -4926,33 +5091,33 @@
     </row>
     <row r="36" spans="1:36" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:36" ht="11.4" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B38" s="39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="23"/>
       <c r="F38" s="40"/>
       <c r="G38" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
       <c r="K38" s="21"/>
       <c r="L38" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M38" s="22"/>
       <c r="N38" s="23"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
@@ -5025,24 +5190,24 @@
     <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B42" s="25"/>
       <c r="C42" s="41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
       <c r="H42" s="26"/>
       <c r="I42" s="26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
       <c r="L42" s="26"/>
       <c r="M42" s="26"/>
       <c r="N42" s="26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O42" s="26"/>
       <c r="P42" s="26"/>
@@ -5054,24 +5219,24 @@
     <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B43" s="25"/>
       <c r="C43" s="41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
       <c r="I43" s="26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J43" s="26"/>
       <c r="K43" s="26"/>
       <c r="L43" s="26"/>
       <c r="M43" s="26"/>
       <c r="N43" s="26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O43" s="26"/>
       <c r="P43" s="26"/>
@@ -5084,7 +5249,7 @@
       <c r="B44" s="25"/>
       <c r="C44" s="26"/>
       <c r="D44" s="41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
@@ -5103,28 +5268,28 @@
       <c r="S44" s="26"/>
       <c r="T44" s="27"/>
       <c r="Z44" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
       <c r="D45" s="41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H45" s="26"/>
       <c r="I45" s="26"/>
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
       <c r="L45" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M45" s="26"/>
       <c r="N45" s="26"/>
@@ -5132,7 +5297,7 @@
       <c r="P45" s="26"/>
       <c r="Q45" s="26"/>
       <c r="R45" s="42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="S45" s="43"/>
       <c r="T45" s="27"/>
@@ -5142,18 +5307,18 @@
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" s="26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
       <c r="K46" s="26"/>
       <c r="L46" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M46" s="26"/>
       <c r="N46" s="26"/>
@@ -5168,10 +5333,10 @@
       <c r="B47" s="25"/>
       <c r="C47" s="26"/>
       <c r="D47" s="41" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
@@ -5186,7 +5351,7 @@
       <c r="P47" s="26"/>
       <c r="Q47" s="26"/>
       <c r="R47" s="42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="S47" s="43"/>
       <c r="T47" s="27"/>
@@ -5206,7 +5371,7 @@
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="E48" s="45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F48" s="46"/>
       <c r="G48" s="46"/>
@@ -5214,13 +5379,13 @@
       <c r="I48" s="48"/>
       <c r="J48" s="48"/>
       <c r="K48" s="48" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L48" s="48"/>
       <c r="M48" s="48"/>
       <c r="N48" s="49"/>
       <c r="O48" s="97" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P48" s="98"/>
       <c r="Q48" s="26"/>
@@ -5229,17 +5394,17 @@
       <c r="T48" s="27"/>
       <c r="AA48" s="50"/>
       <c r="AB48" s="42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AC48" s="43"/>
       <c r="AD48" s="26"/>
       <c r="AE48" s="42" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AF48" s="43"/>
       <c r="AG48" s="26"/>
       <c r="AH48" s="42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AI48" s="43"/>
       <c r="AJ48" s="33"/>
@@ -5249,13 +5414,13 @@
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="51" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F49" s="52"/>
       <c r="G49" s="52"/>
       <c r="H49" s="53"/>
       <c r="I49" s="54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J49" s="54"/>
       <c r="K49" s="54"/>
@@ -5287,16 +5452,16 @@
       <c r="F50" s="104"/>
       <c r="G50" s="104"/>
       <c r="H50" s="57" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I50" s="58" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J50" s="58" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K50" s="58" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L50" s="58"/>
       <c r="M50" s="58"/>
@@ -5323,7 +5488,7 @@
       <c r="M51" s="61"/>
       <c r="N51" s="62"/>
       <c r="O51" s="107" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P51" s="108"/>
       <c r="Q51" s="26"/>
@@ -5336,12 +5501,12 @@
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
       <c r="E52" s="63" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F52" s="64"/>
       <c r="G52" s="64"/>
       <c r="H52" s="65" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I52" s="66"/>
       <c r="J52" s="66"/>
@@ -5361,14 +5526,14 @@
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
       <c r="E53" s="68" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F53" s="69"/>
       <c r="G53" s="69"/>
       <c r="H53" s="70"/>
       <c r="I53" s="71"/>
       <c r="J53" s="71" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K53" s="71"/>
       <c r="L53" s="71"/>
@@ -5404,7 +5569,7 @@
     </row>
     <row r="56" spans="1:36" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:36" ht="11.4" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5438,7 +5603,7 @@
       <c r="G59" s="26"/>
       <c r="H59" s="26"/>
       <c r="I59" s="26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J59" s="26"/>
       <c r="K59" s="26"/>
@@ -5497,31 +5662,31 @@
     <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B62" s="25"/>
       <c r="D62" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E62" s="26"/>
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
       <c r="H62" s="26"/>
       <c r="I62" s="26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J62" s="26"/>
       <c r="K62" s="26"/>
       <c r="L62" s="26"/>
       <c r="M62" s="26"/>
       <c r="N62" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="T62" s="27"/>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B63" s="25"/>
       <c r="D63" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T63" s="27"/>
     </row>
@@ -5532,12 +5697,12 @@
     <row r="65" spans="2:34" ht="11.4" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B65" s="25"/>
       <c r="D65" s="45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E65" s="46"/>
       <c r="F65" s="46"/>
       <c r="G65" s="74" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H65" s="75"/>
       <c r="I65" s="46"/>
@@ -5545,13 +5710,13 @@
       <c r="K65" s="48"/>
       <c r="L65" s="48"/>
       <c r="M65" s="48" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N65" s="48"/>
       <c r="O65" s="48"/>
       <c r="P65" s="49"/>
       <c r="Q65" s="97" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="R65" s="98"/>
       <c r="T65" s="27"/>
@@ -5559,18 +5724,18 @@
     <row r="66" spans="2:34" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="25"/>
       <c r="D66" s="51" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E66" s="52"/>
       <c r="F66" s="52"/>
       <c r="G66" s="76" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H66" s="77"/>
       <c r="I66" s="52"/>
       <c r="J66" s="53"/>
       <c r="K66" s="54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L66" s="54"/>
       <c r="M66" s="54"/>
@@ -5590,16 +5755,16 @@
       <c r="H67" s="79"/>
       <c r="I67" s="80"/>
       <c r="J67" s="57" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K67" s="58" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L67" s="58" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M67" s="58" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N67" s="58"/>
       <c r="O67" s="58"/>
@@ -5624,7 +5789,7 @@
       <c r="O68" s="61"/>
       <c r="P68" s="62"/>
       <c r="Q68" s="107" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="R68" s="108"/>
       <c r="T68" s="27"/>
@@ -5632,17 +5797,17 @@
     <row r="69" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B69" s="25"/>
       <c r="D69" s="63" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E69" s="64"/>
       <c r="F69" s="64"/>
       <c r="G69" s="84" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H69" s="85"/>
       <c r="I69" s="64"/>
       <c r="J69" s="65" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K69" s="66"/>
       <c r="L69" s="66"/>
@@ -5657,19 +5822,19 @@
     <row r="70" spans="2:34" ht="11.4" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B70" s="25"/>
       <c r="D70" s="68" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E70" s="69"/>
       <c r="F70" s="69"/>
       <c r="G70" s="86" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H70" s="87"/>
       <c r="I70" s="69"/>
       <c r="J70" s="70"/>
       <c r="K70" s="71"/>
       <c r="L70" s="71" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M70" s="71"/>
       <c r="N70" s="71"/>
@@ -5682,50 +5847,50 @@
     <row r="71" spans="2:34" ht="11.4" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B71" s="25"/>
       <c r="D71" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="T71" s="27"/>
       <c r="AA71" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AH71" s="92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B72" s="25"/>
       <c r="T72" s="27"/>
       <c r="AB72" s="18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B73" s="25"/>
       <c r="D73" s="42" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E73" s="88"/>
       <c r="F73" s="43"/>
       <c r="T73" s="27"/>
       <c r="AB73" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B74" s="25"/>
       <c r="T74" s="27"/>
       <c r="AB74" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B75" s="25"/>
       <c r="T75" s="27"/>
       <c r="AB75" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="2:34" x14ac:dyDescent="0.2">
@@ -5749,23 +5914,23 @@
       <c r="S76" s="26"/>
       <c r="T76" s="27"/>
       <c r="AB76" s="92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B77" s="25"/>
       <c r="C77" s="26"/>
       <c r="D77" s="26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E77" s="26"/>
       <c r="F77" s="26"/>
       <c r="G77" s="42" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H77" s="88"/>
       <c r="I77" s="43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J77" s="26"/>
       <c r="K77" s="26"/>
@@ -5783,7 +5948,7 @@
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
       <c r="D78" s="42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E78" s="43"/>
       <c r="F78" s="26"/>
@@ -5845,115 +6010,120 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="18" t="s">
+      <c r="C85" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C86" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B90" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>210</v>
+    <row r="90" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B91" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B92" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C91" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C92" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C93" s="18" t="s">
+        <v>215</v>
+      </c>
       <c r="D93" s="18" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B94" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>212</v>
+      <c r="D94" s="18" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B95" s="18" t="s">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B96" s="18" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B101" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>220</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B97" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="16" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B102" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B116" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>115</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B103" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="16" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B117" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B118" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B119" s="18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5986,8 +6156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6003,560 +6173,622 @@
   <sheetData>
     <row r="1" spans="1:6" ht="47.4" x14ac:dyDescent="0.2">
       <c r="D1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>30</v>
+        <v>238</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
+      <c r="F2" s="8" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>240</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>113</v>
+        <v>43</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
+      <c r="F15" s="8" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
+      <c r="F22" s="8" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>56</v>
+        <v>252</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>50</v>
+        <v>88</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
+      <c r="F34" s="8" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>104</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>104</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>104</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>104</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>104</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="3" t="s">
+      <c r="C50" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>56</v>
+        <v>252</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="3" t="s">
+      <c r="C58" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="3" t="s">
+      <c r="C59" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="3" t="s">
+      <c r="C60" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="3" t="s">
+      <c r="C61" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="3" t="s">
+      <c r="C62" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="3" t="s">
+      <c r="C63" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="C64" s="3" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="10"/>
+      <c r="F67" s="8" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6570,8 +6802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
@@ -6582,37 +6814,37 @@
   <sheetData>
     <row r="1" spans="1:3" s="94" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="93" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C3" s="93" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="93" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="93" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="93" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C23" s="93" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -6681,12 +6913,12 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/doc/成績アプリ.xlsx
+++ b/doc/成績アプリ.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\work\django_app\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8D3E39-907B-4C63-9C27-C2BF205C5642}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9057002F-CBDB-440F-AB84-1342DD041A15}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3504" yWindow="192" windowWidth="10992" windowHeight="10584" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3336" yWindow="492" windowWidth="16080" windowHeight="11448" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="要求" sheetId="1" r:id="rId1"/>
     <sheet name="テーブル" sheetId="3" r:id="rId2"/>
     <sheet name="設計" sheetId="4" r:id="rId3"/>
     <sheet name="参考URL" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="263">
   <si>
     <t>メニューボタン</t>
     <phoneticPr fontId="1"/>
@@ -1497,6 +1499,84 @@
   </si>
   <si>
     <t>models.ForeignKey(TblDaily, on_delete=models.PROTECT)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績入力</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績変更・削除</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績・メンバー読み込み</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成績出力(CSV)</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルマネージャー変更</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント入力</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1635,7 +1715,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="81">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -2573,6 +2653,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2582,7 +2671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2927,6 +3016,36 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4349,8 +4468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY119"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
@@ -6156,7 +6275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -6802,7 +6921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6930,4 +7049,295 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD81015E-FB69-41B6-BE92-6C3EA8E20D8D}">
+  <dimension ref="B1:Y18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="118"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="122"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B3" s="120"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="123"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="117"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B5" s="115"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="117"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B6" s="115"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="117"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B7" s="115"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="117"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B8" s="115"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="117"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="116"/>
+      <c r="Y9" s="117"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B13" s="124" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B14" s="124" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B15" s="124" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B16" s="124" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="124" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" t="s">
+        <v>260</v>
+      </c>
+      <c r="O17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="124" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" t="s">
+        <v>261</v>
+      </c>
+      <c r="O18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="H2:M3"/>
+    <mergeCell ref="N2:S3"/>
+    <mergeCell ref="T2:Y3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>